--- a/zankl_summary.xlsx
+++ b/zankl_summary.xlsx
@@ -9,6 +9,9 @@
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
+  <definedNames>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$A$1:$AN$168</definedName>
+  </definedNames>
   <calcPr calcId="122211"/>
 </workbook>
 </file>
@@ -992,10 +995,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <sheetPr filterMode="1"/>
   <dimension ref="A1:AN168"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="AD1" workbookViewId="0">
-      <selection activeCell="AN2" sqref="AN1:AN1048576"/>
+    <sheetView tabSelected="1" topLeftCell="U40" workbookViewId="0">
+      <selection activeCell="A20" sqref="A20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2956,7 +2960,7 @@
         <v>5.999E-3</v>
       </c>
     </row>
-    <row r="17" spans="1:40" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:40" hidden="1" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>16</v>
       </c>
@@ -3078,7 +3082,7 @@
         <v>500.00200000000001</v>
       </c>
     </row>
-    <row r="18" spans="1:40" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:40" hidden="1" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>17</v>
       </c>
@@ -3444,7 +3448,7 @@
         <v>39.868899999999996</v>
       </c>
     </row>
-    <row r="21" spans="1:40" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:40" hidden="1" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
         <v>20</v>
       </c>
@@ -3688,7 +3692,7 @@
         <v>0.23796400000000001</v>
       </c>
     </row>
-    <row r="23" spans="1:40" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:40" hidden="1" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
         <v>22</v>
       </c>
@@ -3810,7 +3814,7 @@
         <v>500.00200000000001</v>
       </c>
     </row>
-    <row r="24" spans="1:40" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:40" hidden="1" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
         <v>23</v>
       </c>
@@ -3932,7 +3936,7 @@
         <v>500.00200000000001</v>
       </c>
     </row>
-    <row r="25" spans="1:40" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:40" hidden="1" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
         <v>24</v>
       </c>
@@ -4176,7 +4180,7 @@
         <v>0.66689799999999999</v>
       </c>
     </row>
-    <row r="27" spans="1:40" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:40" hidden="1" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
         <v>26</v>
       </c>
@@ -4542,7 +4546,7 @@
         <v>0.25596099999999999</v>
       </c>
     </row>
-    <row r="30" spans="1:40" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:40" hidden="1" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
         <v>29</v>
       </c>
@@ -5030,7 +5034,7 @@
         <v>0.302954</v>
       </c>
     </row>
-    <row r="34" spans="1:40" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:40" hidden="1" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
         <v>33</v>
       </c>
@@ -5152,7 +5156,7 @@
         <v>500.00200000000001</v>
       </c>
     </row>
-    <row r="35" spans="1:40" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:40" hidden="1" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
         <v>34</v>
       </c>
@@ -5274,7 +5278,7 @@
         <v>500.00200000000001</v>
       </c>
     </row>
-    <row r="36" spans="1:40" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:40" hidden="1" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
         <v>35</v>
       </c>
@@ -5396,7 +5400,7 @@
         <v>500.00200000000001</v>
       </c>
     </row>
-    <row r="37" spans="1:40" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:40" hidden="1" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
         <v>36</v>
       </c>
@@ -5884,7 +5888,7 @@
         <v>30.1584</v>
       </c>
     </row>
-    <row r="41" spans="1:40" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:40" hidden="1" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
         <v>40</v>
       </c>
@@ -6006,7 +6010,7 @@
         <v>500.00200000000001</v>
       </c>
     </row>
-    <row r="42" spans="1:40" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:40" hidden="1" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
         <v>41</v>
       </c>
@@ -7104,7 +7108,7 @@
         <v>0.36094500000000002</v>
       </c>
     </row>
-    <row r="51" spans="1:40" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:40" hidden="1" x14ac:dyDescent="0.25">
       <c r="A51" t="s">
         <v>50</v>
       </c>
@@ -7226,7 +7230,7 @@
         <v>500.00099999999998</v>
       </c>
     </row>
-    <row r="52" spans="1:40" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:40" hidden="1" x14ac:dyDescent="0.25">
       <c r="A52" t="s">
         <v>51</v>
       </c>
@@ -7348,7 +7352,7 @@
         <v>500.00170000000003</v>
       </c>
     </row>
-    <row r="53" spans="1:40" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:40" hidden="1" x14ac:dyDescent="0.25">
       <c r="A53" t="s">
         <v>52</v>
       </c>
@@ -7470,7 +7474,7 @@
         <v>500.0034</v>
       </c>
     </row>
-    <row r="54" spans="1:40" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:40" hidden="1" x14ac:dyDescent="0.25">
       <c r="A54" t="s">
         <v>53</v>
       </c>
@@ -7592,7 +7596,7 @@
         <v>500.00217800000001</v>
       </c>
     </row>
-    <row r="55" spans="1:40" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:40" hidden="1" x14ac:dyDescent="0.25">
       <c r="A55" t="s">
         <v>54</v>
       </c>
@@ -7714,7 +7718,7 @@
         <v>500.0018</v>
       </c>
     </row>
-    <row r="56" spans="1:40" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:40" hidden="1" x14ac:dyDescent="0.25">
       <c r="A56" t="s">
         <v>55</v>
       </c>
@@ -7836,7 +7840,7 @@
         <v>500.00310000000002</v>
       </c>
     </row>
-    <row r="57" spans="1:40" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:40" hidden="1" x14ac:dyDescent="0.25">
       <c r="A57" t="s">
         <v>56</v>
       </c>
@@ -7958,7 +7962,7 @@
         <v>500.00626</v>
       </c>
     </row>
-    <row r="58" spans="1:40" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:40" hidden="1" x14ac:dyDescent="0.25">
       <c r="A58" t="s">
         <v>57</v>
       </c>
@@ -8080,7 +8084,7 @@
         <v>500.00099999999998</v>
       </c>
     </row>
-    <row r="59" spans="1:40" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:40" hidden="1" x14ac:dyDescent="0.25">
       <c r="A59" t="s">
         <v>58</v>
       </c>
@@ -8202,7 +8206,7 @@
         <v>500.02288199999998</v>
       </c>
     </row>
-    <row r="60" spans="1:40" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:40" hidden="1" x14ac:dyDescent="0.25">
       <c r="A60" t="s">
         <v>59</v>
       </c>
@@ -8324,7 +8328,7 @@
         <v>500.007094</v>
       </c>
     </row>
-    <row r="61" spans="1:40" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:40" hidden="1" x14ac:dyDescent="0.25">
       <c r="A61" t="s">
         <v>60</v>
       </c>
@@ -8446,7 +8450,7 @@
         <v>500.00299999999999</v>
       </c>
     </row>
-    <row r="62" spans="1:40" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:40" hidden="1" x14ac:dyDescent="0.25">
       <c r="A62" t="s">
         <v>61</v>
       </c>
@@ -8690,7 +8694,7 @@
         <v>4.0000000000000001E-3</v>
       </c>
     </row>
-    <row r="64" spans="1:40" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:40" hidden="1" x14ac:dyDescent="0.25">
       <c r="A64" t="s">
         <v>63</v>
       </c>
@@ -8934,7 +8938,7 @@
         <v>3.999E-3</v>
       </c>
     </row>
-    <row r="66" spans="1:40" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:40" hidden="1" x14ac:dyDescent="0.25">
       <c r="A66" t="s">
         <v>65</v>
       </c>
@@ -9056,7 +9060,7 @@
         <v>500.00099999999998</v>
       </c>
     </row>
-    <row r="67" spans="1:40" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:40" hidden="1" x14ac:dyDescent="0.25">
       <c r="A67" t="s">
         <v>66</v>
       </c>
@@ -9178,7 +9182,7 @@
         <v>500.00297999999998</v>
       </c>
     </row>
-    <row r="68" spans="1:40" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:40" hidden="1" x14ac:dyDescent="0.25">
       <c r="A68" t="s">
         <v>67</v>
       </c>
@@ -9300,7 +9304,7 @@
         <v>500.00200000000001</v>
       </c>
     </row>
-    <row r="69" spans="1:40" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:40" hidden="1" x14ac:dyDescent="0.25">
       <c r="A69" t="s">
         <v>68</v>
       </c>
@@ -9422,7 +9426,7 @@
         <v>500.00200000000001</v>
       </c>
     </row>
-    <row r="70" spans="1:40" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:40" hidden="1" x14ac:dyDescent="0.25">
       <c r="A70" t="s">
         <v>69</v>
       </c>
@@ -9544,7 +9548,7 @@
         <v>500.00099999999998</v>
       </c>
     </row>
-    <row r="71" spans="1:40" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:40" hidden="1" x14ac:dyDescent="0.25">
       <c r="A71" t="s">
         <v>70</v>
       </c>
@@ -9666,7 +9670,7 @@
         <v>500.00400000000002</v>
       </c>
     </row>
-    <row r="72" spans="1:40" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:40" hidden="1" x14ac:dyDescent="0.25">
       <c r="A72" t="s">
         <v>71</v>
       </c>
@@ -9910,7 +9914,7 @@
         <v>500.00299999999999</v>
       </c>
     </row>
-    <row r="74" spans="1:40" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:40" hidden="1" x14ac:dyDescent="0.25">
       <c r="A74" t="s">
         <v>73</v>
       </c>
@@ -10032,7 +10036,7 @@
         <v>500.01499999999999</v>
       </c>
     </row>
-    <row r="75" spans="1:40" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:40" hidden="1" x14ac:dyDescent="0.25">
       <c r="A75" t="s">
         <v>74</v>
       </c>
@@ -10154,7 +10158,7 @@
         <v>500.00099999999998</v>
       </c>
     </row>
-    <row r="76" spans="1:40" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:40" hidden="1" x14ac:dyDescent="0.25">
       <c r="A76" t="s">
         <v>75</v>
       </c>
@@ -10276,7 +10280,7 @@
         <v>500.00299999999999</v>
       </c>
     </row>
-    <row r="77" spans="1:40" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:40" hidden="1" x14ac:dyDescent="0.25">
       <c r="A77" t="s">
         <v>76</v>
       </c>
@@ -10398,7 +10402,7 @@
         <v>500.00599999999997</v>
       </c>
     </row>
-    <row r="78" spans="1:40" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:40" hidden="1" x14ac:dyDescent="0.25">
       <c r="A78" t="s">
         <v>77</v>
       </c>
@@ -10520,7 +10524,7 @@
         <v>500.01400000000001</v>
       </c>
     </row>
-    <row r="79" spans="1:40" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:40" hidden="1" x14ac:dyDescent="0.25">
       <c r="A79" t="s">
         <v>78</v>
       </c>
@@ -10642,7 +10646,7 @@
         <v>500.20600000000002</v>
       </c>
     </row>
-    <row r="80" spans="1:40" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:40" hidden="1" x14ac:dyDescent="0.25">
       <c r="A80" t="s">
         <v>79</v>
       </c>
@@ -10764,7 +10768,7 @@
         <v>500.00299999999999</v>
       </c>
     </row>
-    <row r="81" spans="1:40" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:40" hidden="1" x14ac:dyDescent="0.25">
       <c r="A81" t="s">
         <v>80</v>
       </c>
@@ -10886,7 +10890,7 @@
         <v>500.00400000000002</v>
       </c>
     </row>
-    <row r="82" spans="1:40" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:40" hidden="1" x14ac:dyDescent="0.25">
       <c r="A82" t="s">
         <v>81</v>
       </c>
@@ -11008,7 +11012,7 @@
         <v>500.00299999999999</v>
       </c>
     </row>
-    <row r="83" spans="1:40" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:40" hidden="1" x14ac:dyDescent="0.25">
       <c r="A83" t="s">
         <v>82</v>
       </c>
@@ -11252,7 +11256,7 @@
         <v>1.5997999999999998E-2</v>
       </c>
     </row>
-    <row r="85" spans="1:40" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:40" hidden="1" x14ac:dyDescent="0.25">
       <c r="A85" t="s">
         <v>84</v>
       </c>
@@ -11496,7 +11500,7 @@
         <v>9.9989999999999992E-3</v>
       </c>
     </row>
-    <row r="87" spans="1:40" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:40" hidden="1" x14ac:dyDescent="0.25">
       <c r="A87" t="s">
         <v>86</v>
       </c>
@@ -11740,7 +11744,7 @@
         <v>500.00200000000001</v>
       </c>
     </row>
-    <row r="89" spans="1:40" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:40" hidden="1" x14ac:dyDescent="0.25">
       <c r="A89" t="s">
         <v>88</v>
       </c>
@@ -11984,7 +11988,7 @@
         <v>500.00200000000001</v>
       </c>
     </row>
-    <row r="91" spans="1:40" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:40" hidden="1" x14ac:dyDescent="0.25">
       <c r="A91" t="s">
         <v>90</v>
       </c>
@@ -12228,7 +12232,7 @@
         <v>500.00400000000002</v>
       </c>
     </row>
-    <row r="93" spans="1:40" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:40" hidden="1" x14ac:dyDescent="0.25">
       <c r="A93" t="s">
         <v>92</v>
       </c>
@@ -12350,7 +12354,7 @@
         <v>500.00299999999999</v>
       </c>
     </row>
-    <row r="94" spans="1:40" x14ac:dyDescent="0.25">
+    <row r="94" spans="1:40" hidden="1" x14ac:dyDescent="0.25">
       <c r="A94" t="s">
         <v>93</v>
       </c>
@@ -12472,7 +12476,7 @@
         <v>500.005</v>
       </c>
     </row>
-    <row r="95" spans="1:40" x14ac:dyDescent="0.25">
+    <row r="95" spans="1:40" hidden="1" x14ac:dyDescent="0.25">
       <c r="A95" t="s">
         <v>94</v>
       </c>
@@ -12594,7 +12598,7 @@
         <v>500.00200000000001</v>
       </c>
     </row>
-    <row r="96" spans="1:40" x14ac:dyDescent="0.25">
+    <row r="96" spans="1:40" hidden="1" x14ac:dyDescent="0.25">
       <c r="A96" t="s">
         <v>95</v>
       </c>
@@ -12716,7 +12720,7 @@
         <v>500.01400000000001</v>
       </c>
     </row>
-    <row r="97" spans="1:40" x14ac:dyDescent="0.25">
+    <row r="97" spans="1:40" hidden="1" x14ac:dyDescent="0.25">
       <c r="A97" t="s">
         <v>96</v>
       </c>
@@ -12838,7 +12842,7 @@
         <v>500.03</v>
       </c>
     </row>
-    <row r="98" spans="1:40" x14ac:dyDescent="0.25">
+    <row r="98" spans="1:40" hidden="1" x14ac:dyDescent="0.25">
       <c r="A98" t="s">
         <v>97</v>
       </c>
@@ -12960,7 +12964,7 @@
         <v>500.25799999999998</v>
       </c>
     </row>
-    <row r="99" spans="1:40" x14ac:dyDescent="0.25">
+    <row r="99" spans="1:40" hidden="1" x14ac:dyDescent="0.25">
       <c r="A99" t="s">
         <v>98</v>
       </c>
@@ -13082,7 +13086,7 @@
         <v>500.05700000000002</v>
       </c>
     </row>
-    <row r="100" spans="1:40" x14ac:dyDescent="0.25">
+    <row r="100" spans="1:40" hidden="1" x14ac:dyDescent="0.25">
       <c r="A100" t="s">
         <v>99</v>
       </c>
@@ -13204,7 +13208,7 @@
         <v>500.00900000000001</v>
       </c>
     </row>
-    <row r="101" spans="1:40" x14ac:dyDescent="0.25">
+    <row r="101" spans="1:40" hidden="1" x14ac:dyDescent="0.25">
       <c r="A101" t="s">
         <v>100</v>
       </c>
@@ -13326,7 +13330,7 @@
         <v>500.012</v>
       </c>
     </row>
-    <row r="102" spans="1:40" x14ac:dyDescent="0.25">
+    <row r="102" spans="1:40" hidden="1" x14ac:dyDescent="0.25">
       <c r="A102" t="s">
         <v>101</v>
       </c>
@@ -13692,7 +13696,7 @@
         <v>500.00400000000002</v>
       </c>
     </row>
-    <row r="105" spans="1:40" x14ac:dyDescent="0.25">
+    <row r="105" spans="1:40" hidden="1" x14ac:dyDescent="0.25">
       <c r="A105" t="s">
         <v>104</v>
       </c>
@@ -13936,7 +13940,7 @@
         <v>2.0996999999999998E-2</v>
       </c>
     </row>
-    <row r="107" spans="1:40" x14ac:dyDescent="0.25">
+    <row r="107" spans="1:40" hidden="1" x14ac:dyDescent="0.25">
       <c r="A107" t="s">
         <v>106</v>
       </c>
@@ -14058,7 +14062,7 @@
         <v>500.00200000000001</v>
       </c>
     </row>
-    <row r="108" spans="1:40" x14ac:dyDescent="0.25">
+    <row r="108" spans="1:40" hidden="1" x14ac:dyDescent="0.25">
       <c r="A108" t="s">
         <v>107</v>
       </c>
@@ -14302,7 +14306,7 @@
         <v>500.00200000000001</v>
       </c>
     </row>
-    <row r="110" spans="1:40" x14ac:dyDescent="0.25">
+    <row r="110" spans="1:40" hidden="1" x14ac:dyDescent="0.25">
       <c r="A110" t="s">
         <v>109</v>
       </c>
@@ -14424,7 +14428,7 @@
         <v>500.00900000000001</v>
       </c>
     </row>
-    <row r="111" spans="1:40" x14ac:dyDescent="0.25">
+    <row r="111" spans="1:40" hidden="1" x14ac:dyDescent="0.25">
       <c r="A111" t="s">
         <v>110</v>
       </c>
@@ -14546,7 +14550,7 @@
         <v>500.012</v>
       </c>
     </row>
-    <row r="112" spans="1:40" x14ac:dyDescent="0.25">
+    <row r="112" spans="1:40" hidden="1" x14ac:dyDescent="0.25">
       <c r="A112" t="s">
         <v>111</v>
       </c>
@@ -14668,7 +14672,7 @@
         <v>500.73899999999998</v>
       </c>
     </row>
-    <row r="113" spans="1:40" x14ac:dyDescent="0.25">
+    <row r="113" spans="1:40" hidden="1" x14ac:dyDescent="0.25">
       <c r="A113" t="s">
         <v>112</v>
       </c>
@@ -14790,7 +14794,7 @@
         <v>500.03199999999998</v>
       </c>
     </row>
-    <row r="114" spans="1:40" x14ac:dyDescent="0.25">
+    <row r="114" spans="1:40" hidden="1" x14ac:dyDescent="0.25">
       <c r="A114" t="s">
         <v>113</v>
       </c>
@@ -14912,7 +14916,7 @@
         <v>500.05599999999998</v>
       </c>
     </row>
-    <row r="115" spans="1:40" x14ac:dyDescent="0.25">
+    <row r="115" spans="1:40" hidden="1" x14ac:dyDescent="0.25">
       <c r="A115" t="s">
         <v>114</v>
       </c>
@@ -15034,7 +15038,7 @@
         <v>500.33699999999999</v>
       </c>
     </row>
-    <row r="116" spans="1:40" x14ac:dyDescent="0.25">
+    <row r="116" spans="1:40" hidden="1" x14ac:dyDescent="0.25">
       <c r="A116" t="s">
         <v>115</v>
       </c>
@@ -15156,7 +15160,7 @@
         <v>500.96600000000001</v>
       </c>
     </row>
-    <row r="117" spans="1:40" x14ac:dyDescent="0.25">
+    <row r="117" spans="1:40" hidden="1" x14ac:dyDescent="0.25">
       <c r="A117" t="s">
         <v>116</v>
       </c>
@@ -15278,7 +15282,7 @@
         <v>500.05799999999999</v>
       </c>
     </row>
-    <row r="118" spans="1:40" x14ac:dyDescent="0.25">
+    <row r="118" spans="1:40" hidden="1" x14ac:dyDescent="0.25">
       <c r="A118" t="s">
         <v>117</v>
       </c>
@@ -15400,7 +15404,7 @@
         <v>500.00700000000001</v>
       </c>
     </row>
-    <row r="119" spans="1:40" x14ac:dyDescent="0.25">
+    <row r="119" spans="1:40" hidden="1" x14ac:dyDescent="0.25">
       <c r="A119" t="s">
         <v>118</v>
       </c>
@@ -15522,7 +15526,7 @@
         <v>500.04300000000001</v>
       </c>
     </row>
-    <row r="120" spans="1:40" x14ac:dyDescent="0.25">
+    <row r="120" spans="1:40" hidden="1" x14ac:dyDescent="0.25">
       <c r="A120" t="s">
         <v>119</v>
       </c>
@@ -15644,7 +15648,7 @@
         <v>500.03699999999998</v>
       </c>
     </row>
-    <row r="121" spans="1:40" x14ac:dyDescent="0.25">
+    <row r="121" spans="1:40" hidden="1" x14ac:dyDescent="0.25">
       <c r="A121" t="s">
         <v>120</v>
       </c>
@@ -15766,7 +15770,7 @@
         <v>500.03800000000001</v>
       </c>
     </row>
-    <row r="122" spans="1:40" x14ac:dyDescent="0.25">
+    <row r="122" spans="1:40" hidden="1" x14ac:dyDescent="0.25">
       <c r="A122" t="s">
         <v>121</v>
       </c>
@@ -15888,7 +15892,7 @@
         <v>500.68400000000003</v>
       </c>
     </row>
-    <row r="123" spans="1:40" x14ac:dyDescent="0.25">
+    <row r="123" spans="1:40" hidden="1" x14ac:dyDescent="0.25">
       <c r="A123" t="s">
         <v>122</v>
       </c>
@@ -16010,7 +16014,7 @@
         <v>501.334</v>
       </c>
     </row>
-    <row r="124" spans="1:40" x14ac:dyDescent="0.25">
+    <row r="124" spans="1:40" hidden="1" x14ac:dyDescent="0.25">
       <c r="A124" t="s">
         <v>123</v>
       </c>
@@ -16254,7 +16258,7 @@
         <v>500.00299999999999</v>
       </c>
     </row>
-    <row r="126" spans="1:40" x14ac:dyDescent="0.25">
+    <row r="126" spans="1:40" hidden="1" x14ac:dyDescent="0.25">
       <c r="A126" t="s">
         <v>125</v>
       </c>
@@ -16376,7 +16380,7 @@
         <v>500.005</v>
       </c>
     </row>
-    <row r="127" spans="1:40" x14ac:dyDescent="0.25">
+    <row r="127" spans="1:40" hidden="1" x14ac:dyDescent="0.25">
       <c r="A127" t="s">
         <v>126</v>
       </c>
@@ -16498,7 +16502,7 @@
         <v>500.08</v>
       </c>
     </row>
-    <row r="128" spans="1:40" x14ac:dyDescent="0.25">
+    <row r="128" spans="1:40" hidden="1" x14ac:dyDescent="0.25">
       <c r="A128" t="s">
         <v>127</v>
       </c>
@@ -16620,7 +16624,7 @@
         <v>500.154</v>
       </c>
     </row>
-    <row r="129" spans="1:40" x14ac:dyDescent="0.25">
+    <row r="129" spans="1:40" hidden="1" x14ac:dyDescent="0.25">
       <c r="A129" t="s">
         <v>128</v>
       </c>
@@ -16742,7 +16746,7 @@
         <v>611.35</v>
       </c>
     </row>
-    <row r="130" spans="1:40" x14ac:dyDescent="0.25">
+    <row r="130" spans="1:40" hidden="1" x14ac:dyDescent="0.25">
       <c r="A130" t="s">
         <v>129</v>
       </c>
@@ -16864,7 +16868,7 @@
         <v>500.435</v>
       </c>
     </row>
-    <row r="131" spans="1:40" x14ac:dyDescent="0.25">
+    <row r="131" spans="1:40" hidden="1" x14ac:dyDescent="0.25">
       <c r="A131" t="s">
         <v>130</v>
       </c>
@@ -16986,7 +16990,7 @@
         <v>500.01299999999998</v>
       </c>
     </row>
-    <row r="132" spans="1:40" x14ac:dyDescent="0.25">
+    <row r="132" spans="1:40" hidden="1" x14ac:dyDescent="0.25">
       <c r="A132" t="s">
         <v>131</v>
       </c>
@@ -17108,7 +17112,7 @@
         <v>500.02800000000002</v>
       </c>
     </row>
-    <row r="133" spans="1:40" x14ac:dyDescent="0.25">
+    <row r="133" spans="1:40" hidden="1" x14ac:dyDescent="0.25">
       <c r="A133" t="s">
         <v>132</v>
       </c>
@@ -17474,7 +17478,7 @@
         <v>500.06700000000001</v>
       </c>
     </row>
-    <row r="136" spans="1:40" x14ac:dyDescent="0.25">
+    <row r="136" spans="1:40" hidden="1" x14ac:dyDescent="0.25">
       <c r="A136" t="s">
         <v>135</v>
       </c>
@@ -17718,7 +17722,7 @@
         <v>4.6994000000000001E-2</v>
       </c>
     </row>
-    <row r="138" spans="1:40" x14ac:dyDescent="0.25">
+    <row r="138" spans="1:40" hidden="1" x14ac:dyDescent="0.25">
       <c r="A138" t="s">
         <v>137</v>
       </c>
@@ -17840,7 +17844,7 @@
         <v>500.53199999999998</v>
       </c>
     </row>
-    <row r="139" spans="1:40" x14ac:dyDescent="0.25">
+    <row r="139" spans="1:40" hidden="1" x14ac:dyDescent="0.25">
       <c r="A139" t="s">
         <v>138</v>
       </c>
@@ -17962,7 +17966,7 @@
         <v>500.01299999999998</v>
       </c>
     </row>
-    <row r="140" spans="1:40" x14ac:dyDescent="0.25">
+    <row r="140" spans="1:40" hidden="1" x14ac:dyDescent="0.25">
       <c r="A140" t="s">
         <v>139</v>
       </c>
@@ -18084,7 +18088,7 @@
         <v>500.14699999999999</v>
       </c>
     </row>
-    <row r="141" spans="1:40" x14ac:dyDescent="0.25">
+    <row r="141" spans="1:40" hidden="1" x14ac:dyDescent="0.25">
       <c r="A141" t="s">
         <v>140</v>
       </c>
@@ -18206,7 +18210,7 @@
         <v>501.661</v>
       </c>
     </row>
-    <row r="142" spans="1:40" x14ac:dyDescent="0.25">
+    <row r="142" spans="1:40" hidden="1" x14ac:dyDescent="0.25">
       <c r="A142" t="s">
         <v>141</v>
       </c>
@@ -18328,7 +18332,7 @@
         <v>500.017</v>
       </c>
     </row>
-    <row r="143" spans="1:40" x14ac:dyDescent="0.25">
+    <row r="143" spans="1:40" hidden="1" x14ac:dyDescent="0.25">
       <c r="A143" t="s">
         <v>142</v>
       </c>
@@ -18572,7 +18576,7 @@
         <v>500.09100000000001</v>
       </c>
     </row>
-    <row r="145" spans="1:40" x14ac:dyDescent="0.25">
+    <row r="145" spans="1:40" hidden="1" x14ac:dyDescent="0.25">
       <c r="A145" t="s">
         <v>144</v>
       </c>
@@ -18694,7 +18698,7 @@
         <v>500.13</v>
       </c>
     </row>
-    <row r="146" spans="1:40" x14ac:dyDescent="0.25">
+    <row r="146" spans="1:40" hidden="1" x14ac:dyDescent="0.25">
       <c r="A146" t="s">
         <v>145</v>
       </c>
@@ -18816,7 +18820,7 @@
         <v>500.25700000000001</v>
       </c>
     </row>
-    <row r="147" spans="1:40" x14ac:dyDescent="0.25">
+    <row r="147" spans="1:40" hidden="1" x14ac:dyDescent="0.25">
       <c r="A147" t="s">
         <v>146</v>
       </c>
@@ -18938,7 +18942,7 @@
         <v>500.08300000000003</v>
       </c>
     </row>
-    <row r="148" spans="1:40" x14ac:dyDescent="0.25">
+    <row r="148" spans="1:40" hidden="1" x14ac:dyDescent="0.25">
       <c r="A148" t="s">
         <v>147</v>
       </c>
@@ -19060,7 +19064,7 @@
         <v>514.54200000000003</v>
       </c>
     </row>
-    <row r="149" spans="1:40" x14ac:dyDescent="0.25">
+    <row r="149" spans="1:40" hidden="1" x14ac:dyDescent="0.25">
       <c r="A149" t="s">
         <v>148</v>
       </c>
@@ -19182,7 +19186,7 @@
         <v>500.00099999999998</v>
       </c>
     </row>
-    <row r="150" spans="1:40" x14ac:dyDescent="0.25">
+    <row r="150" spans="1:40" hidden="1" x14ac:dyDescent="0.25">
       <c r="A150" t="s">
         <v>149</v>
       </c>
@@ -19304,7 +19308,7 @@
         <v>500.46300000000002</v>
       </c>
     </row>
-    <row r="151" spans="1:40" x14ac:dyDescent="0.25">
+    <row r="151" spans="1:40" hidden="1" x14ac:dyDescent="0.25">
       <c r="A151" t="s">
         <v>150</v>
       </c>
@@ -19548,7 +19552,7 @@
         <v>500.005</v>
       </c>
     </row>
-    <row r="153" spans="1:40" x14ac:dyDescent="0.25">
+    <row r="153" spans="1:40" hidden="1" x14ac:dyDescent="0.25">
       <c r="A153" t="s">
         <v>152</v>
       </c>
@@ -19670,7 +19674,7 @@
         <v>1406.12</v>
       </c>
     </row>
-    <row r="154" spans="1:40" x14ac:dyDescent="0.25">
+    <row r="154" spans="1:40" hidden="1" x14ac:dyDescent="0.25">
       <c r="A154" t="s">
         <v>153</v>
       </c>
@@ -19792,7 +19796,7 @@
         <v>502.803</v>
       </c>
     </row>
-    <row r="155" spans="1:40" x14ac:dyDescent="0.25">
+    <row r="155" spans="1:40" hidden="1" x14ac:dyDescent="0.25">
       <c r="A155" t="s">
         <v>154</v>
       </c>
@@ -19914,7 +19918,7 @@
         <v>500.27</v>
       </c>
     </row>
-    <row r="156" spans="1:40" x14ac:dyDescent="0.25">
+    <row r="156" spans="1:40" hidden="1" x14ac:dyDescent="0.25">
       <c r="A156" t="s">
         <v>155</v>
       </c>
@@ -20036,7 +20040,7 @@
         <v>500.28</v>
       </c>
     </row>
-    <row r="157" spans="1:40" x14ac:dyDescent="0.25">
+    <row r="157" spans="1:40" hidden="1" x14ac:dyDescent="0.25">
       <c r="A157" t="s">
         <v>156</v>
       </c>
@@ -20280,7 +20284,7 @@
         <v>9.6986000000000003E-2</v>
       </c>
     </row>
-    <row r="159" spans="1:40" x14ac:dyDescent="0.25">
+    <row r="159" spans="1:40" hidden="1" x14ac:dyDescent="0.25">
       <c r="A159" t="s">
         <v>158</v>
       </c>
@@ -20524,7 +20528,7 @@
         <v>0.14197899999999999</v>
       </c>
     </row>
-    <row r="161" spans="1:40" x14ac:dyDescent="0.25">
+    <row r="161" spans="1:40" hidden="1" x14ac:dyDescent="0.25">
       <c r="A161" t="s">
         <v>160</v>
       </c>
@@ -20646,7 +20650,7 @@
         <v>502.14499999999998</v>
       </c>
     </row>
-    <row r="162" spans="1:40" x14ac:dyDescent="0.25">
+    <row r="162" spans="1:40" hidden="1" x14ac:dyDescent="0.25">
       <c r="A162" t="s">
         <v>161</v>
       </c>
@@ -20890,7 +20894,7 @@
         <v>500.03300000000002</v>
       </c>
     </row>
-    <row r="164" spans="1:40" x14ac:dyDescent="0.25">
+    <row r="164" spans="1:40" hidden="1" x14ac:dyDescent="0.25">
       <c r="A164" t="s">
         <v>163</v>
       </c>
@@ -21012,7 +21016,7 @@
         <v>500.01499999999999</v>
       </c>
     </row>
-    <row r="165" spans="1:40" x14ac:dyDescent="0.25">
+    <row r="165" spans="1:40" hidden="1" x14ac:dyDescent="0.25">
       <c r="A165" t="s">
         <v>164</v>
       </c>
@@ -21134,7 +21138,7 @@
         <v>505.75</v>
       </c>
     </row>
-    <row r="166" spans="1:40" x14ac:dyDescent="0.25">
+    <row r="166" spans="1:40" hidden="1" x14ac:dyDescent="0.25">
       <c r="A166" t="s">
         <v>165</v>
       </c>
@@ -21256,7 +21260,7 @@
         <v>500.488</v>
       </c>
     </row>
-    <row r="167" spans="1:40" x14ac:dyDescent="0.25">
+    <row r="167" spans="1:40" hidden="1" x14ac:dyDescent="0.25">
       <c r="A167" t="s">
         <v>166</v>
       </c>
@@ -21378,7 +21382,7 @@
         <v>500.05799999999999</v>
       </c>
     </row>
-    <row r="168" spans="1:40" x14ac:dyDescent="0.25">
+    <row r="168" spans="1:40" hidden="1" x14ac:dyDescent="0.25">
       <c r="A168" t="s">
         <v>0</v>
       </c>
@@ -21501,6 +21505,14 @@
       </c>
     </row>
   </sheetData>
+  <autoFilter ref="A1:AN168">
+    <filterColumn colId="6">
+      <filters>
+        <filter val="sat"/>
+        <filter val="unsat"/>
+      </filters>
+    </filterColumn>
+  </autoFilter>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>

--- a/zankl_summary.xlsx
+++ b/zankl_summary.xlsx
@@ -10,14 +10,14 @@
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$A$1:$AN$168</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$A$1:$AN$167</definedName>
   </definedNames>
   <calcPr calcId="122211"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3547" uniqueCount="212">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3870" uniqueCount="217">
   <si>
     <t>Problem</t>
   </si>
@@ -654,6 +654,21 @@
   <si>
     <t>10-7-9 time</t>
   </si>
+  <si>
+    <t>z3 Result</t>
+  </si>
+  <si>
+    <t>timeout</t>
+  </si>
+  <si>
+    <t>z3 time</t>
+  </si>
+  <si>
+    <t>isat3 Result</t>
+  </si>
+  <si>
+    <t>isat3 time</t>
+  </si>
 </sst>
 </file>
 
@@ -995,20 +1010,20 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <sheetPr filterMode="1"/>
-  <dimension ref="A1:AN168"/>
+  <dimension ref="A1:AR168"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="U40" workbookViewId="0">
-      <selection activeCell="A20" sqref="A20"/>
+    <sheetView tabSelected="1" topLeftCell="Y163" workbookViewId="0">
+      <selection activeCell="AQ43" sqref="AQ43"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
+    <col min="1" max="1" width="24.7109375" bestFit="1" customWidth="1"/>
     <col min="31" max="31" width="9.7109375" bestFit="1" customWidth="1"/>
     <col min="37" max="37" width="9.7109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:40" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:44" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -1129,8 +1144,20 @@
       <c r="AN1" t="s">
         <v>211</v>
       </c>
+      <c r="AO1" t="s">
+        <v>212</v>
+      </c>
+      <c r="AP1" t="s">
+        <v>214</v>
+      </c>
+      <c r="AQ1" t="s">
+        <v>215</v>
+      </c>
+      <c r="AR1" t="s">
+        <v>216</v>
+      </c>
     </row>
-    <row r="2" spans="1:40" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:44" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>1</v>
       </c>
@@ -1251,8 +1278,20 @@
       <c r="AN2">
         <v>0</v>
       </c>
+      <c r="AO2" t="s">
+        <v>168</v>
+      </c>
+      <c r="AP2">
+        <v>7.986E-3</v>
+      </c>
+      <c r="AQ2" t="s">
+        <v>170</v>
+      </c>
+      <c r="AR2">
+        <v>1.1440000000000001E-2</v>
+      </c>
     </row>
-    <row r="3" spans="1:40" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:44" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>2</v>
       </c>
@@ -1373,8 +1412,20 @@
       <c r="AN3">
         <v>2E-3</v>
       </c>
+      <c r="AO3" t="s">
+        <v>168</v>
+      </c>
+      <c r="AP3">
+        <v>6.4349999999999997E-3</v>
+      </c>
+      <c r="AQ3" t="s">
+        <v>170</v>
+      </c>
+      <c r="AR3">
+        <v>2.0229E-2</v>
+      </c>
     </row>
-    <row r="4" spans="1:40" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:44" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>3</v>
       </c>
@@ -1495,8 +1546,20 @@
       <c r="AN4">
         <v>3.999E-3</v>
       </c>
+      <c r="AO4" t="s">
+        <v>168</v>
+      </c>
+      <c r="AP4">
+        <v>2.4650000000000002E-3</v>
+      </c>
+      <c r="AQ4" t="s">
+        <v>170</v>
+      </c>
+      <c r="AR4">
+        <v>9.5729999999999999E-3</v>
+      </c>
     </row>
-    <row r="5" spans="1:40" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:44" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>4</v>
       </c>
@@ -1617,8 +1680,20 @@
       <c r="AN5">
         <v>1.1998E-2</v>
       </c>
+      <c r="AO5" t="s">
+        <v>168</v>
+      </c>
+      <c r="AP5">
+        <v>2.3831999999999999E-2</v>
+      </c>
+      <c r="AQ5" t="s">
+        <v>170</v>
+      </c>
+      <c r="AR5">
+        <v>1.9584000000000001E-2</v>
+      </c>
     </row>
-    <row r="6" spans="1:40" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:44" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>5</v>
       </c>
@@ -1739,8 +1814,20 @@
       <c r="AN6">
         <v>2E-3</v>
       </c>
+      <c r="AO6" t="s">
+        <v>168</v>
+      </c>
+      <c r="AP6">
+        <v>3.5820000000000001E-3</v>
+      </c>
+      <c r="AQ6" t="s">
+        <v>170</v>
+      </c>
+      <c r="AR6">
+        <v>1.9710999999999999E-2</v>
+      </c>
     </row>
-    <row r="7" spans="1:40" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:44" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>6</v>
       </c>
@@ -1861,8 +1948,20 @@
       <c r="AN7">
         <v>1.0999E-2</v>
       </c>
+      <c r="AO7" t="s">
+        <v>168</v>
+      </c>
+      <c r="AP7">
+        <v>3.4987999999999998E-2</v>
+      </c>
+      <c r="AQ7" t="s">
+        <v>170</v>
+      </c>
+      <c r="AR7">
+        <v>3.9179999999999996E-3</v>
+      </c>
     </row>
-    <row r="8" spans="1:40" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:44" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>7</v>
       </c>
@@ -1983,8 +2082,20 @@
       <c r="AN8">
         <v>9.9989999999999992E-3</v>
       </c>
+      <c r="AO8" t="s">
+        <v>168</v>
+      </c>
+      <c r="AP8">
+        <v>5.7229999999999998E-3</v>
+      </c>
+      <c r="AQ8" t="s">
+        <v>170</v>
+      </c>
+      <c r="AR8">
+        <v>7.7499999999999999E-3</v>
+      </c>
     </row>
-    <row r="9" spans="1:40" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:44" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>8</v>
       </c>
@@ -2105,8 +2216,20 @@
       <c r="AN9">
         <v>2E-3</v>
       </c>
+      <c r="AO9" t="s">
+        <v>168</v>
+      </c>
+      <c r="AP9">
+        <v>3.4680000000000002E-3</v>
+      </c>
+      <c r="AQ9" t="s">
+        <v>170</v>
+      </c>
+      <c r="AR9">
+        <v>1.3278E-2</v>
+      </c>
     </row>
-    <row r="10" spans="1:40" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:44" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>9</v>
       </c>
@@ -2227,8 +2350,20 @@
       <c r="AN10">
         <v>5.0000000000000001E-3</v>
       </c>
+      <c r="AO10" t="s">
+        <v>169</v>
+      </c>
+      <c r="AP10">
+        <v>4.6579999999999998E-3</v>
+      </c>
+      <c r="AQ10" t="s">
+        <v>169</v>
+      </c>
+      <c r="AR10">
+        <v>2.264E-3</v>
+      </c>
     </row>
-    <row r="11" spans="1:40" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:44" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>10</v>
       </c>
@@ -2349,8 +2484,20 @@
       <c r="AN11">
         <v>3.0000000000000001E-3</v>
       </c>
+      <c r="AO11" t="s">
+        <v>169</v>
+      </c>
+      <c r="AP11">
+        <v>2.65E-3</v>
+      </c>
+      <c r="AQ11" t="s">
+        <v>169</v>
+      </c>
+      <c r="AR11">
+        <v>5.3610000000000003E-3</v>
+      </c>
     </row>
-    <row r="12" spans="1:40" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:44" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>11</v>
       </c>
@@ -2471,8 +2618,20 @@
       <c r="AN12">
         <v>7.8989000000000004E-2</v>
       </c>
+      <c r="AO12" t="s">
+        <v>169</v>
+      </c>
+      <c r="AP12">
+        <v>2.6319999999999998E-3</v>
+      </c>
+      <c r="AQ12" t="s">
+        <v>169</v>
+      </c>
+      <c r="AR12">
+        <v>1.6825E-2</v>
+      </c>
     </row>
-    <row r="13" spans="1:40" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:44" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>12</v>
       </c>
@@ -2593,8 +2752,20 @@
       <c r="AN13">
         <v>2E-3</v>
       </c>
+      <c r="AO13" t="s">
+        <v>168</v>
+      </c>
+      <c r="AP13">
+        <v>2.5225000000000001E-2</v>
+      </c>
+      <c r="AQ13" t="s">
+        <v>170</v>
+      </c>
+      <c r="AR13">
+        <v>5.9280000000000001E-3</v>
+      </c>
     </row>
-    <row r="14" spans="1:40" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:44" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>13</v>
       </c>
@@ -2715,8 +2886,20 @@
       <c r="AN14">
         <v>3.8995000000000002E-2</v>
       </c>
+      <c r="AO14" t="s">
+        <v>169</v>
+      </c>
+      <c r="AP14">
+        <v>6.2550000000000001E-3</v>
+      </c>
+      <c r="AQ14" t="s">
+        <v>169</v>
+      </c>
+      <c r="AR14">
+        <v>2.6946000000000001E-2</v>
+      </c>
     </row>
-    <row r="15" spans="1:40" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:44" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>14</v>
       </c>
@@ -2837,8 +3020,20 @@
       <c r="AN15">
         <v>4.0000000000000001E-3</v>
       </c>
+      <c r="AO15" t="s">
+        <v>168</v>
+      </c>
+      <c r="AP15">
+        <v>3.2295999999999998E-2</v>
+      </c>
+      <c r="AQ15" t="s">
+        <v>170</v>
+      </c>
+      <c r="AR15">
+        <v>3.0068000000000001E-2</v>
+      </c>
     </row>
-    <row r="16" spans="1:40" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:44" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>15</v>
       </c>
@@ -2959,8 +3154,20 @@
       <c r="AN16">
         <v>5.999E-3</v>
       </c>
+      <c r="AO16" t="s">
+        <v>168</v>
+      </c>
+      <c r="AP16">
+        <v>5.9789999999999999E-3</v>
+      </c>
+      <c r="AQ16" t="s">
+        <v>170</v>
+      </c>
+      <c r="AR16">
+        <v>5.0949999999999997E-3</v>
+      </c>
     </row>
-    <row r="17" spans="1:40" hidden="1" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:44" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>16</v>
       </c>
@@ -3081,8 +3288,20 @@
       <c r="AN17">
         <v>500.00200000000001</v>
       </c>
+      <c r="AO17" t="s">
+        <v>168</v>
+      </c>
+      <c r="AP17">
+        <v>8.4539999999999997E-3</v>
+      </c>
+      <c r="AQ17" t="s">
+        <v>170</v>
+      </c>
+      <c r="AR17">
+        <v>0.40726899999999999</v>
+      </c>
     </row>
-    <row r="18" spans="1:40" hidden="1" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:44" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>17</v>
       </c>
@@ -3203,8 +3422,20 @@
       <c r="AN18">
         <v>500.00099999999998</v>
       </c>
+      <c r="AO18" t="s">
+        <v>168</v>
+      </c>
+      <c r="AP18">
+        <v>5.3286E-2</v>
+      </c>
+      <c r="AQ18" t="s">
+        <v>170</v>
+      </c>
+      <c r="AR18">
+        <v>0.52543300000000004</v>
+      </c>
     </row>
-    <row r="19" spans="1:40" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:44" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
         <v>18</v>
       </c>
@@ -3325,8 +3556,20 @@
       <c r="AN19">
         <v>0.87086799999999998</v>
       </c>
+      <c r="AO19" t="s">
+        <v>168</v>
+      </c>
+      <c r="AP19">
+        <v>1.4194999999999999E-2</v>
+      </c>
+      <c r="AQ19" t="s">
+        <v>170</v>
+      </c>
+      <c r="AR19">
+        <v>0.34182499999999999</v>
+      </c>
     </row>
-    <row r="20" spans="1:40" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:44" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
         <v>19</v>
       </c>
@@ -3447,8 +3690,20 @@
       <c r="AN20">
         <v>39.868899999999996</v>
       </c>
+      <c r="AO20" t="s">
+        <v>168</v>
+      </c>
+      <c r="AP20">
+        <v>1.7899000000000002E-2</v>
+      </c>
+      <c r="AQ20" t="s">
+        <v>170</v>
+      </c>
+      <c r="AR20">
+        <v>0.59929600000000005</v>
+      </c>
     </row>
-    <row r="21" spans="1:40" hidden="1" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:44" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
         <v>20</v>
       </c>
@@ -3569,8 +3824,20 @@
       <c r="AN21">
         <v>500.00200000000001</v>
       </c>
+      <c r="AO21" t="s">
+        <v>168</v>
+      </c>
+      <c r="AP21">
+        <v>1.0676E-2</v>
+      </c>
+      <c r="AQ21" t="s">
+        <v>170</v>
+      </c>
+      <c r="AR21">
+        <v>18.139039</v>
+      </c>
     </row>
-    <row r="22" spans="1:40" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:44" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
         <v>21</v>
       </c>
@@ -3691,8 +3958,20 @@
       <c r="AN22">
         <v>0.23796400000000001</v>
       </c>
+      <c r="AO22" t="s">
+        <v>168</v>
+      </c>
+      <c r="AP22">
+        <v>5.1450000000000003E-3</v>
+      </c>
+      <c r="AQ22" t="s">
+        <v>170</v>
+      </c>
+      <c r="AR22">
+        <v>0.30739699999999998</v>
+      </c>
     </row>
-    <row r="23" spans="1:40" hidden="1" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:44" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
         <v>22</v>
       </c>
@@ -3813,8 +4092,20 @@
       <c r="AN23">
         <v>500.00200000000001</v>
       </c>
+      <c r="AO23" t="s">
+        <v>168</v>
+      </c>
+      <c r="AP23">
+        <v>4.9529999999999999E-3</v>
+      </c>
+      <c r="AQ23" t="s">
+        <v>168</v>
+      </c>
+      <c r="AR23">
+        <v>9.1224E-2</v>
+      </c>
     </row>
-    <row r="24" spans="1:40" hidden="1" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:44" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
         <v>23</v>
       </c>
@@ -3935,8 +4226,20 @@
       <c r="AN24">
         <v>500.00200000000001</v>
       </c>
+      <c r="AO24" t="s">
+        <v>168</v>
+      </c>
+      <c r="AP24">
+        <v>1.6462999999999998E-2</v>
+      </c>
+      <c r="AQ24" t="s">
+        <v>168</v>
+      </c>
+      <c r="AR24">
+        <v>0.46180100000000002</v>
+      </c>
     </row>
-    <row r="25" spans="1:40" hidden="1" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:44" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
         <v>24</v>
       </c>
@@ -4057,8 +4360,20 @@
       <c r="AN25">
         <v>33.566899999999997</v>
       </c>
+      <c r="AO25" t="s">
+        <v>168</v>
+      </c>
+      <c r="AP25">
+        <v>3.4341999999999998E-2</v>
+      </c>
+      <c r="AQ25" t="s">
+        <v>170</v>
+      </c>
+      <c r="AR25">
+        <v>163.09232299999999</v>
+      </c>
     </row>
-    <row r="26" spans="1:40" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:44" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
         <v>25</v>
       </c>
@@ -4179,8 +4494,20 @@
       <c r="AN26">
         <v>0.66689799999999999</v>
       </c>
+      <c r="AO26" t="s">
+        <v>168</v>
+      </c>
+      <c r="AP26">
+        <v>1.0999E-2</v>
+      </c>
+      <c r="AQ26" t="s">
+        <v>168</v>
+      </c>
+      <c r="AR26">
+        <v>2.2824000000000001E-2</v>
+      </c>
     </row>
-    <row r="27" spans="1:40" hidden="1" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:44" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
         <v>26</v>
       </c>
@@ -4301,8 +4628,20 @@
       <c r="AN27">
         <v>500.00099999999998</v>
       </c>
+      <c r="AO27" t="s">
+        <v>168</v>
+      </c>
+      <c r="AP27">
+        <v>1.0727E-2</v>
+      </c>
+      <c r="AQ27" t="s">
+        <v>170</v>
+      </c>
+      <c r="AR27">
+        <v>0.776084</v>
+      </c>
     </row>
-    <row r="28" spans="1:40" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:44" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
         <v>27</v>
       </c>
@@ -4423,8 +4762,20 @@
       <c r="AN28">
         <v>0.39993899999999999</v>
       </c>
+      <c r="AO28" t="s">
+        <v>168</v>
+      </c>
+      <c r="AP28">
+        <v>4.2519999999999997E-3</v>
+      </c>
+      <c r="AQ28" t="s">
+        <v>168</v>
+      </c>
+      <c r="AR28">
+        <v>1.6801E-2</v>
+      </c>
     </row>
-    <row r="29" spans="1:40" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:44" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
         <v>28</v>
       </c>
@@ -4545,8 +4896,20 @@
       <c r="AN29">
         <v>0.25596099999999999</v>
       </c>
+      <c r="AO29" t="s">
+        <v>168</v>
+      </c>
+      <c r="AP29">
+        <v>4.5589999999999997E-3</v>
+      </c>
+      <c r="AQ29" t="s">
+        <v>168</v>
+      </c>
+      <c r="AR29">
+        <v>2.5294000000000001E-2</v>
+      </c>
     </row>
-    <row r="30" spans="1:40" hidden="1" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:44" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
         <v>29</v>
       </c>
@@ -4667,8 +5030,20 @@
       <c r="AN30">
         <v>34.358800000000002</v>
       </c>
+      <c r="AO30" t="s">
+        <v>168</v>
+      </c>
+      <c r="AP30">
+        <v>7.901E-3</v>
+      </c>
+      <c r="AQ30" t="s">
+        <v>170</v>
+      </c>
+      <c r="AR30">
+        <v>1.3423510000000001</v>
+      </c>
     </row>
-    <row r="31" spans="1:40" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:44" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
         <v>30</v>
       </c>
@@ -4789,8 +5164,20 @@
       <c r="AN31">
         <v>7.60684</v>
       </c>
+      <c r="AO31" t="s">
+        <v>168</v>
+      </c>
+      <c r="AP31">
+        <v>4.2430000000000002E-3</v>
+      </c>
+      <c r="AQ31" t="s">
+        <v>170</v>
+      </c>
+      <c r="AR31">
+        <v>0.18960199999999999</v>
+      </c>
     </row>
-    <row r="32" spans="1:40" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:44" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
         <v>31</v>
       </c>
@@ -4911,8 +5298,20 @@
       <c r="AN32">
         <v>500.00099999999998</v>
       </c>
+      <c r="AO32" t="s">
+        <v>168</v>
+      </c>
+      <c r="AP32">
+        <v>1.5521E-2</v>
+      </c>
+      <c r="AQ32" t="s">
+        <v>170</v>
+      </c>
+      <c r="AR32">
+        <v>0.326376</v>
+      </c>
     </row>
-    <row r="33" spans="1:40" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:44" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
         <v>32</v>
       </c>
@@ -5033,8 +5432,20 @@
       <c r="AN33">
         <v>0.302954</v>
       </c>
+      <c r="AO33" t="s">
+        <v>168</v>
+      </c>
+      <c r="AP33">
+        <v>9.5840000000000005E-3</v>
+      </c>
+      <c r="AQ33" t="s">
+        <v>170</v>
+      </c>
+      <c r="AR33">
+        <v>2.3987999999999999E-2</v>
+      </c>
     </row>
-    <row r="34" spans="1:40" hidden="1" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:44" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
         <v>33</v>
       </c>
@@ -5155,8 +5566,20 @@
       <c r="AN34">
         <v>500.00200000000001</v>
       </c>
+      <c r="AO34" t="s">
+        <v>168</v>
+      </c>
+      <c r="AP34">
+        <v>1.6108999999999998E-2</v>
+      </c>
+      <c r="AQ34" t="s">
+        <v>170</v>
+      </c>
+      <c r="AR34">
+        <v>0.14891599999999999</v>
+      </c>
     </row>
-    <row r="35" spans="1:40" hidden="1" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:44" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
         <v>34</v>
       </c>
@@ -5277,8 +5700,20 @@
       <c r="AN35">
         <v>500.00200000000001</v>
       </c>
+      <c r="AO35" t="s">
+        <v>168</v>
+      </c>
+      <c r="AP35">
+        <v>1.7381000000000001E-2</v>
+      </c>
+      <c r="AQ35" t="s">
+        <v>170</v>
+      </c>
+      <c r="AR35">
+        <v>1.5683130000000001</v>
+      </c>
     </row>
-    <row r="36" spans="1:40" hidden="1" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:44" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
         <v>35</v>
       </c>
@@ -5399,8 +5834,20 @@
       <c r="AN36">
         <v>500.00200000000001</v>
       </c>
+      <c r="AO36" t="s">
+        <v>168</v>
+      </c>
+      <c r="AP36">
+        <v>1.0106E-2</v>
+      </c>
+      <c r="AQ36" t="s">
+        <v>170</v>
+      </c>
+      <c r="AR36">
+        <v>0.174318</v>
+      </c>
     </row>
-    <row r="37" spans="1:40" hidden="1" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:44" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
         <v>36</v>
       </c>
@@ -5521,8 +5968,20 @@
       <c r="AN37">
         <v>500.00200000000001</v>
       </c>
+      <c r="AO37" t="s">
+        <v>168</v>
+      </c>
+      <c r="AP37">
+        <v>8.4950000000000008E-3</v>
+      </c>
+      <c r="AQ37" t="s">
+        <v>170</v>
+      </c>
+      <c r="AR37">
+        <v>0.58896199999999999</v>
+      </c>
     </row>
-    <row r="38" spans="1:40" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:44" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
         <v>37</v>
       </c>
@@ -5643,8 +6102,20 @@
       <c r="AN38">
         <v>1.1478299999999999</v>
       </c>
+      <c r="AO38" t="s">
+        <v>168</v>
+      </c>
+      <c r="AP38">
+        <v>6.5269999999999998E-3</v>
+      </c>
+      <c r="AQ38" t="s">
+        <v>168</v>
+      </c>
+      <c r="AR38">
+        <v>5.8529999999999999E-2</v>
+      </c>
     </row>
-    <row r="39" spans="1:40" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:44" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
         <v>38</v>
       </c>
@@ -5765,8 +6236,20 @@
       <c r="AN39">
         <v>88.2346</v>
       </c>
+      <c r="AO39" t="s">
+        <v>168</v>
+      </c>
+      <c r="AP39">
+        <v>4.7860000000000003E-3</v>
+      </c>
+      <c r="AQ39" t="s">
+        <v>170</v>
+      </c>
+      <c r="AR39">
+        <v>0.143152</v>
+      </c>
     </row>
-    <row r="40" spans="1:40" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:44" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
         <v>39</v>
       </c>
@@ -5887,8 +6370,20 @@
       <c r="AN40">
         <v>30.1584</v>
       </c>
+      <c r="AO40" t="s">
+        <v>168</v>
+      </c>
+      <c r="AP40">
+        <v>4.888E-3</v>
+      </c>
+      <c r="AQ40" t="s">
+        <v>170</v>
+      </c>
+      <c r="AR40">
+        <v>0.117201</v>
+      </c>
     </row>
-    <row r="41" spans="1:40" hidden="1" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:44" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
         <v>40</v>
       </c>
@@ -6009,8 +6504,20 @@
       <c r="AN41">
         <v>500.00200000000001</v>
       </c>
+      <c r="AO41" t="s">
+        <v>168</v>
+      </c>
+      <c r="AP41">
+        <v>4.9750000000000003E-3</v>
+      </c>
+      <c r="AQ41" t="s">
+        <v>170</v>
+      </c>
+      <c r="AR41">
+        <v>13.129568000000001</v>
+      </c>
     </row>
-    <row r="42" spans="1:40" hidden="1" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:44" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
         <v>41</v>
       </c>
@@ -6131,8 +6638,20 @@
       <c r="AN42">
         <v>500.00200000000001</v>
       </c>
+      <c r="AO42" t="s">
+        <v>168</v>
+      </c>
+      <c r="AP42">
+        <v>4.8900000000000002E-3</v>
+      </c>
+      <c r="AQ42" t="s">
+        <v>170</v>
+      </c>
+      <c r="AR42">
+        <v>1.197419</v>
+      </c>
     </row>
-    <row r="43" spans="1:40" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:44" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
         <v>42</v>
       </c>
@@ -6253,8 +6772,20 @@
       <c r="AN43">
         <v>0.27995700000000001</v>
       </c>
+      <c r="AO43" t="s">
+        <v>168</v>
+      </c>
+      <c r="AP43">
+        <v>3.454E-3</v>
+      </c>
+      <c r="AQ43" t="s">
+        <v>168</v>
+      </c>
+      <c r="AR43">
+        <v>7.9840999999999995E-2</v>
+      </c>
     </row>
-    <row r="44" spans="1:40" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:44" x14ac:dyDescent="0.25">
       <c r="A44" t="s">
         <v>43</v>
       </c>
@@ -6375,8 +6906,20 @@
       <c r="AN44">
         <v>0.32395099999999999</v>
       </c>
+      <c r="AO44" t="s">
+        <v>168</v>
+      </c>
+      <c r="AP44">
+        <v>3.8449999999999999E-3</v>
+      </c>
+      <c r="AQ44" t="s">
+        <v>170</v>
+      </c>
+      <c r="AR44">
+        <v>0.55360200000000004</v>
+      </c>
     </row>
-    <row r="45" spans="1:40" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:44" x14ac:dyDescent="0.25">
       <c r="A45" t="s">
         <v>44</v>
       </c>
@@ -6497,8 +7040,20 @@
       <c r="AN45">
         <v>2.4426299999999999</v>
       </c>
+      <c r="AO45" t="s">
+        <v>168</v>
+      </c>
+      <c r="AP45">
+        <v>6.0540000000000004E-3</v>
+      </c>
+      <c r="AQ45" t="s">
+        <v>170</v>
+      </c>
+      <c r="AR45">
+        <v>24.723132</v>
+      </c>
     </row>
-    <row r="46" spans="1:40" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:44" x14ac:dyDescent="0.25">
       <c r="A46" t="s">
         <v>45</v>
       </c>
@@ -6619,8 +7174,20 @@
       <c r="AN46">
         <v>3.5554600000000001</v>
       </c>
+      <c r="AO46" t="s">
+        <v>168</v>
+      </c>
+      <c r="AP46">
+        <v>4.2180000000000004E-3</v>
+      </c>
+      <c r="AQ46" t="s">
+        <v>168</v>
+      </c>
+      <c r="AR46">
+        <v>4.5983999999999997E-2</v>
+      </c>
     </row>
-    <row r="47" spans="1:40" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:44" x14ac:dyDescent="0.25">
       <c r="A47" t="s">
         <v>46</v>
       </c>
@@ -6741,8 +7308,20 @@
       <c r="AN47">
         <v>220.85499999999999</v>
       </c>
+      <c r="AO47" t="s">
+        <v>168</v>
+      </c>
+      <c r="AP47">
+        <v>5.8459999999999996E-3</v>
+      </c>
+      <c r="AQ47" t="s">
+        <v>168</v>
+      </c>
+      <c r="AR47">
+        <v>0.225609</v>
+      </c>
     </row>
-    <row r="48" spans="1:40" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:44" x14ac:dyDescent="0.25">
       <c r="A48" t="s">
         <v>47</v>
       </c>
@@ -6863,8 +7442,20 @@
       <c r="AN48">
         <v>0.495925</v>
       </c>
+      <c r="AO48" t="s">
+        <v>168</v>
+      </c>
+      <c r="AP48">
+        <v>1.6729240000000001</v>
+      </c>
+      <c r="AQ48" t="s">
+        <v>170</v>
+      </c>
+      <c r="AR48">
+        <v>0.52356000000000003</v>
+      </c>
     </row>
-    <row r="49" spans="1:40" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:44" x14ac:dyDescent="0.25">
       <c r="A49" t="s">
         <v>48</v>
       </c>
@@ -6985,8 +7576,20 @@
       <c r="AN49">
         <v>467.399</v>
       </c>
+      <c r="AO49" t="s">
+        <v>168</v>
+      </c>
+      <c r="AP49">
+        <v>6.5059999999999996E-3</v>
+      </c>
+      <c r="AQ49" t="s">
+        <v>168</v>
+      </c>
+      <c r="AR49">
+        <v>3.6307520000000002</v>
+      </c>
     </row>
-    <row r="50" spans="1:40" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:44" x14ac:dyDescent="0.25">
       <c r="A50" t="s">
         <v>49</v>
       </c>
@@ -7107,8 +7710,20 @@
       <c r="AN50">
         <v>0.36094500000000002</v>
       </c>
+      <c r="AO50" t="s">
+        <v>168</v>
+      </c>
+      <c r="AP50">
+        <v>1.5065E-2</v>
+      </c>
+      <c r="AQ50" t="s">
+        <v>170</v>
+      </c>
+      <c r="AR50">
+        <v>0.22054599999999999</v>
+      </c>
     </row>
-    <row r="51" spans="1:40" hidden="1" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:44" x14ac:dyDescent="0.25">
       <c r="A51" t="s">
         <v>50</v>
       </c>
@@ -7229,8 +7844,20 @@
       <c r="AN51">
         <v>500.00099999999998</v>
       </c>
+      <c r="AO51" t="s">
+        <v>168</v>
+      </c>
+      <c r="AP51">
+        <v>2.1975999999999999E-2</v>
+      </c>
+      <c r="AQ51" t="s">
+        <v>170</v>
+      </c>
+      <c r="AR51">
+        <v>4.7134939999999999</v>
+      </c>
     </row>
-    <row r="52" spans="1:40" hidden="1" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:44" x14ac:dyDescent="0.25">
       <c r="A52" t="s">
         <v>51</v>
       </c>
@@ -7351,8 +7978,20 @@
       <c r="AN52">
         <v>500.00170000000003</v>
       </c>
+      <c r="AO52" t="s">
+        <v>168</v>
+      </c>
+      <c r="AP52">
+        <v>3.9112000000000001E-2</v>
+      </c>
+      <c r="AQ52" t="s">
+        <v>170</v>
+      </c>
+      <c r="AR52">
+        <v>7.4022000000000004E-2</v>
+      </c>
     </row>
-    <row r="53" spans="1:40" hidden="1" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:44" x14ac:dyDescent="0.25">
       <c r="A53" t="s">
         <v>52</v>
       </c>
@@ -7473,8 +8112,20 @@
       <c r="AN53">
         <v>500.0034</v>
       </c>
+      <c r="AO53" t="s">
+        <v>169</v>
+      </c>
+      <c r="AP53">
+        <v>9.2029999999999994E-3</v>
+      </c>
+      <c r="AQ53" t="s">
+        <v>170</v>
+      </c>
+      <c r="AR53">
+        <v>105.406429</v>
+      </c>
     </row>
-    <row r="54" spans="1:40" hidden="1" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:44" x14ac:dyDescent="0.25">
       <c r="A54" t="s">
         <v>53</v>
       </c>
@@ -7595,8 +8246,20 @@
       <c r="AN54">
         <v>500.00217800000001</v>
       </c>
+      <c r="AO54" t="s">
+        <v>169</v>
+      </c>
+      <c r="AP54">
+        <v>8.3320000000000009E-3</v>
+      </c>
+      <c r="AQ54" t="s">
+        <v>169</v>
+      </c>
+      <c r="AR54">
+        <v>2.1269E-2</v>
+      </c>
     </row>
-    <row r="55" spans="1:40" hidden="1" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:44" x14ac:dyDescent="0.25">
       <c r="A55" t="s">
         <v>54</v>
       </c>
@@ -7717,8 +8380,20 @@
       <c r="AN55">
         <v>500.0018</v>
       </c>
+      <c r="AO55" t="s">
+        <v>169</v>
+      </c>
+      <c r="AP55">
+        <v>1.4759E-2</v>
+      </c>
+      <c r="AQ55" t="s">
+        <v>170</v>
+      </c>
+      <c r="AR55">
+        <v>3.2594780000000001</v>
+      </c>
     </row>
-    <row r="56" spans="1:40" hidden="1" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:44" x14ac:dyDescent="0.25">
       <c r="A56" t="s">
         <v>55</v>
       </c>
@@ -7839,8 +8514,20 @@
       <c r="AN56">
         <v>500.00310000000002</v>
       </c>
+      <c r="AO56" t="s">
+        <v>169</v>
+      </c>
+      <c r="AP56">
+        <v>1.3953E-2</v>
+      </c>
+      <c r="AQ56" t="s">
+        <v>170</v>
+      </c>
+      <c r="AR56">
+        <v>34.965698000000003</v>
+      </c>
     </row>
-    <row r="57" spans="1:40" hidden="1" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:44" x14ac:dyDescent="0.25">
       <c r="A57" t="s">
         <v>56</v>
       </c>
@@ -7961,8 +8648,20 @@
       <c r="AN57">
         <v>500.00626</v>
       </c>
+      <c r="AO57" t="s">
+        <v>169</v>
+      </c>
+      <c r="AP57">
+        <v>6.1726000000000003E-2</v>
+      </c>
+      <c r="AQ57" t="s">
+        <v>170</v>
+      </c>
+      <c r="AR57">
+        <v>77.401960000000003</v>
+      </c>
     </row>
-    <row r="58" spans="1:40" hidden="1" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:44" x14ac:dyDescent="0.25">
       <c r="A58" t="s">
         <v>57</v>
       </c>
@@ -8083,8 +8782,20 @@
       <c r="AN58">
         <v>500.00099999999998</v>
       </c>
+      <c r="AO58" t="s">
+        <v>169</v>
+      </c>
+      <c r="AP58">
+        <v>5.3930000000000002E-3</v>
+      </c>
+      <c r="AQ58" t="s">
+        <v>170</v>
+      </c>
+      <c r="AR58">
+        <v>0.25118299999999999</v>
+      </c>
     </row>
-    <row r="59" spans="1:40" hidden="1" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:44" x14ac:dyDescent="0.25">
       <c r="A59" t="s">
         <v>58</v>
       </c>
@@ -8205,8 +8916,20 @@
       <c r="AN59">
         <v>500.02288199999998</v>
       </c>
+      <c r="AO59" t="s">
+        <v>169</v>
+      </c>
+      <c r="AP59">
+        <v>1.055E-2</v>
+      </c>
+      <c r="AQ59" t="s">
+        <v>170</v>
+      </c>
+      <c r="AR59">
+        <v>1.0361450000000001</v>
+      </c>
     </row>
-    <row r="60" spans="1:40" hidden="1" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:44" x14ac:dyDescent="0.25">
       <c r="A60" t="s">
         <v>59</v>
       </c>
@@ -8327,8 +9050,20 @@
       <c r="AN60">
         <v>500.007094</v>
       </c>
+      <c r="AO60" t="s">
+        <v>169</v>
+      </c>
+      <c r="AP60">
+        <v>5.0870000000000004E-3</v>
+      </c>
+      <c r="AQ60" t="s">
+        <v>170</v>
+      </c>
+      <c r="AR60">
+        <v>0.27735300000000002</v>
+      </c>
     </row>
-    <row r="61" spans="1:40" hidden="1" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:44" x14ac:dyDescent="0.25">
       <c r="A61" t="s">
         <v>60</v>
       </c>
@@ -8449,8 +9184,20 @@
       <c r="AN61">
         <v>500.00299999999999</v>
       </c>
+      <c r="AO61" t="s">
+        <v>168</v>
+      </c>
+      <c r="AP61">
+        <v>1.3702000000000001E-2</v>
+      </c>
+      <c r="AQ61" t="s">
+        <v>170</v>
+      </c>
+      <c r="AR61">
+        <v>0.35316599999999998</v>
+      </c>
     </row>
-    <row r="62" spans="1:40" hidden="1" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:44" x14ac:dyDescent="0.25">
       <c r="A62" t="s">
         <v>61</v>
       </c>
@@ -8571,8 +9318,20 @@
       <c r="AN62">
         <v>500.00099999999998</v>
       </c>
+      <c r="AO62" t="s">
+        <v>169</v>
+      </c>
+      <c r="AP62">
+        <v>5.4640000000000001E-3</v>
+      </c>
+      <c r="AQ62" t="s">
+        <v>170</v>
+      </c>
+      <c r="AR62">
+        <v>0.19308500000000001</v>
+      </c>
     </row>
-    <row r="63" spans="1:40" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:44" x14ac:dyDescent="0.25">
       <c r="A63" t="s">
         <v>62</v>
       </c>
@@ -8693,8 +9452,20 @@
       <c r="AN63">
         <v>4.0000000000000001E-3</v>
       </c>
+      <c r="AO63" t="s">
+        <v>169</v>
+      </c>
+      <c r="AP63">
+        <v>2.9199999999999999E-3</v>
+      </c>
+      <c r="AQ63" t="s">
+        <v>169</v>
+      </c>
+      <c r="AR63">
+        <v>1.5169999999999999E-2</v>
+      </c>
     </row>
-    <row r="64" spans="1:40" hidden="1" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:44" x14ac:dyDescent="0.25">
       <c r="A64" t="s">
         <v>63</v>
       </c>
@@ -8815,8 +9586,20 @@
       <c r="AN64">
         <v>500.00099999999998</v>
       </c>
+      <c r="AO64" t="s">
+        <v>169</v>
+      </c>
+      <c r="AP64">
+        <v>3.0980000000000001E-3</v>
+      </c>
+      <c r="AQ64" t="s">
+        <v>170</v>
+      </c>
+      <c r="AR64">
+        <v>3.9509000000000002E-2</v>
+      </c>
     </row>
-    <row r="65" spans="1:40" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:44" x14ac:dyDescent="0.25">
       <c r="A65" t="s">
         <v>64</v>
       </c>
@@ -8937,8 +9720,20 @@
       <c r="AN65">
         <v>3.999E-3</v>
       </c>
+      <c r="AO65" t="s">
+        <v>169</v>
+      </c>
+      <c r="AP65">
+        <v>3.5430000000000001E-3</v>
+      </c>
+      <c r="AQ65" t="s">
+        <v>169</v>
+      </c>
+      <c r="AR65">
+        <v>1.8259000000000001E-2</v>
+      </c>
     </row>
-    <row r="66" spans="1:40" hidden="1" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:44" x14ac:dyDescent="0.25">
       <c r="A66" t="s">
         <v>65</v>
       </c>
@@ -9059,8 +9854,20 @@
       <c r="AN66">
         <v>500.00099999999998</v>
       </c>
+      <c r="AO66" t="s">
+        <v>168</v>
+      </c>
+      <c r="AP66">
+        <v>1.0152E-2</v>
+      </c>
+      <c r="AQ66" t="s">
+        <v>170</v>
+      </c>
+      <c r="AR66">
+        <v>129.79460700000001</v>
+      </c>
     </row>
-    <row r="67" spans="1:40" hidden="1" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:44" x14ac:dyDescent="0.25">
       <c r="A67" t="s">
         <v>66</v>
       </c>
@@ -9181,8 +9988,20 @@
       <c r="AN67">
         <v>500.00297999999998</v>
       </c>
+      <c r="AO67" t="s">
+        <v>168</v>
+      </c>
+      <c r="AP67">
+        <v>5.1869999999999998E-3</v>
+      </c>
+      <c r="AQ67" t="s">
+        <v>168</v>
+      </c>
+      <c r="AR67">
+        <v>2.0402E-2</v>
+      </c>
     </row>
-    <row r="68" spans="1:40" hidden="1" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:44" x14ac:dyDescent="0.25">
       <c r="A68" t="s">
         <v>67</v>
       </c>
@@ -9303,8 +10122,20 @@
       <c r="AN68">
         <v>500.00200000000001</v>
       </c>
+      <c r="AO68" t="s">
+        <v>168</v>
+      </c>
+      <c r="AP68">
+        <v>5.0351E-2</v>
+      </c>
+      <c r="AQ68" t="s">
+        <v>170</v>
+      </c>
+      <c r="AR68">
+        <v>63.256292999999999</v>
+      </c>
     </row>
-    <row r="69" spans="1:40" hidden="1" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:44" x14ac:dyDescent="0.25">
       <c r="A69" t="s">
         <v>68</v>
       </c>
@@ -9425,8 +10256,20 @@
       <c r="AN69">
         <v>500.00200000000001</v>
       </c>
+      <c r="AO69" t="s">
+        <v>168</v>
+      </c>
+      <c r="AP69">
+        <v>6.901E-3</v>
+      </c>
+      <c r="AQ69" t="s">
+        <v>170</v>
+      </c>
+      <c r="AR69">
+        <v>0.27157199999999998</v>
+      </c>
     </row>
-    <row r="70" spans="1:40" hidden="1" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:44" x14ac:dyDescent="0.25">
       <c r="A70" t="s">
         <v>69</v>
       </c>
@@ -9547,8 +10390,20 @@
       <c r="AN70">
         <v>500.00099999999998</v>
       </c>
+      <c r="AO70" t="s">
+        <v>213</v>
+      </c>
+      <c r="AP70">
+        <v>499.93012599999997</v>
+      </c>
+      <c r="AQ70" t="s">
+        <v>170</v>
+      </c>
+      <c r="AR70">
+        <v>1.401173</v>
+      </c>
     </row>
-    <row r="71" spans="1:40" hidden="1" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:44" x14ac:dyDescent="0.25">
       <c r="A71" t="s">
         <v>70</v>
       </c>
@@ -9669,8 +10524,20 @@
       <c r="AN71">
         <v>500.00400000000002</v>
       </c>
+      <c r="AO71" t="s">
+        <v>168</v>
+      </c>
+      <c r="AP71">
+        <v>136.494822</v>
+      </c>
+      <c r="AQ71" t="s">
+        <v>170</v>
+      </c>
+      <c r="AR71">
+        <v>1.328192</v>
+      </c>
     </row>
-    <row r="72" spans="1:40" hidden="1" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:44" x14ac:dyDescent="0.25">
       <c r="A72" t="s">
         <v>71</v>
       </c>
@@ -9791,8 +10658,20 @@
       <c r="AN72">
         <v>500.00400000000002</v>
       </c>
+      <c r="AO72" t="s">
+        <v>213</v>
+      </c>
+      <c r="AP72">
+        <v>499.978047</v>
+      </c>
+      <c r="AQ72" t="s">
+        <v>170</v>
+      </c>
+      <c r="AR72">
+        <v>7.3222889999999996</v>
+      </c>
     </row>
-    <row r="73" spans="1:40" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:44" x14ac:dyDescent="0.25">
       <c r="A73" t="s">
         <v>72</v>
       </c>
@@ -9913,8 +10792,20 @@
       <c r="AN73">
         <v>500.00299999999999</v>
       </c>
+      <c r="AO73" t="s">
+        <v>168</v>
+      </c>
+      <c r="AP73">
+        <v>330.98873800000001</v>
+      </c>
+      <c r="AQ73" t="s">
+        <v>170</v>
+      </c>
+      <c r="AR73">
+        <v>0.90281</v>
+      </c>
     </row>
-    <row r="74" spans="1:40" hidden="1" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:44" x14ac:dyDescent="0.25">
       <c r="A74" t="s">
         <v>73</v>
       </c>
@@ -10035,8 +10926,20 @@
       <c r="AN74">
         <v>500.01499999999999</v>
       </c>
+      <c r="AO74" t="s">
+        <v>213</v>
+      </c>
+      <c r="AP74">
+        <v>500.04745100000002</v>
+      </c>
+      <c r="AQ74" t="s">
+        <v>213</v>
+      </c>
+      <c r="AR74">
+        <v>500.00028300000002</v>
+      </c>
     </row>
-    <row r="75" spans="1:40" hidden="1" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:44" x14ac:dyDescent="0.25">
       <c r="A75" t="s">
         <v>74</v>
       </c>
@@ -10157,19 +11060,31 @@
       <c r="AN75">
         <v>500.00099999999998</v>
       </c>
+      <c r="AO75" t="s">
+        <v>169</v>
+      </c>
+      <c r="AP75">
+        <v>0.29442400000000002</v>
+      </c>
+      <c r="AQ75" t="s">
+        <v>169</v>
+      </c>
+      <c r="AR75">
+        <v>1.3821380000000001</v>
+      </c>
     </row>
-    <row r="76" spans="1:40" hidden="1" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:44" x14ac:dyDescent="0.25">
       <c r="A76" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="B76" t="s">
-        <v>168</v>
+        <v>170</v>
       </c>
       <c r="C76" t="s">
         <v>171</v>
       </c>
       <c r="D76">
-        <v>500.00400000000002</v>
+        <v>500.00700000000001</v>
       </c>
       <c r="E76" t="s">
         <v>171</v>
@@ -10181,31 +11096,31 @@
         <v>171</v>
       </c>
       <c r="H76">
-        <v>500.00200000000001</v>
+        <v>500.00599999999997</v>
       </c>
       <c r="I76" t="s">
         <v>171</v>
       </c>
       <c r="J76">
-        <v>500.00099999999998</v>
+        <v>500.005</v>
       </c>
       <c r="K76" t="s">
         <v>171</v>
       </c>
       <c r="L76">
+        <v>500.00200000000001</v>
+      </c>
+      <c r="M76" t="s">
+        <v>171</v>
+      </c>
+      <c r="N76">
         <v>500.00299999999999</v>
       </c>
-      <c r="M76" t="s">
-        <v>171</v>
-      </c>
-      <c r="N76">
-        <v>500.00200000000001</v>
-      </c>
       <c r="O76" t="s">
         <v>171</v>
       </c>
       <c r="P76">
-        <v>500.00400000000002</v>
+        <v>500.005</v>
       </c>
       <c r="Q76" t="s">
         <v>171</v>
@@ -10217,72 +11132,84 @@
         <v>171</v>
       </c>
       <c r="T76">
+        <v>500.01</v>
+      </c>
+      <c r="U76" t="s">
+        <v>171</v>
+      </c>
+      <c r="V76">
+        <v>500.00099999999998</v>
+      </c>
+      <c r="W76" t="s">
+        <v>171</v>
+      </c>
+      <c r="X76">
+        <v>500.00099999999998</v>
+      </c>
+      <c r="Y76" t="s">
+        <v>171</v>
+      </c>
+      <c r="Z76">
+        <v>500.00099999999998</v>
+      </c>
+      <c r="AA76" t="s">
+        <v>171</v>
+      </c>
+      <c r="AB76">
+        <v>500.00099999999998</v>
+      </c>
+      <c r="AC76" t="s">
+        <v>171</v>
+      </c>
+      <c r="AD76">
         <v>500.005</v>
       </c>
-      <c r="U76" t="s">
-        <v>171</v>
-      </c>
-      <c r="V76">
-        <v>500.00099999999998</v>
-      </c>
-      <c r="W76" t="s">
-        <v>171</v>
-      </c>
-      <c r="X76">
-        <v>500.00200000000001</v>
-      </c>
-      <c r="Y76" t="s">
-        <v>171</v>
-      </c>
-      <c r="Z76">
-        <v>500.00099999999998</v>
-      </c>
-      <c r="AA76" t="s">
-        <v>171</v>
-      </c>
-      <c r="AB76">
-        <v>500.00299999999999</v>
-      </c>
-      <c r="AC76" t="s">
-        <v>171</v>
-      </c>
-      <c r="AD76">
-        <v>500.00200000000001</v>
-      </c>
       <c r="AE76" t="s">
         <v>171</v>
       </c>
       <c r="AF76">
-        <v>500.00200000000001</v>
+        <v>500.005</v>
       </c>
       <c r="AG76" t="s">
         <v>171</v>
       </c>
       <c r="AH76">
-        <v>500.00200000000001</v>
+        <v>500.00599999999997</v>
       </c>
       <c r="AI76" t="s">
         <v>171</v>
       </c>
       <c r="AJ76">
-        <v>500.00200000000001</v>
+        <v>500.00599999999997</v>
       </c>
       <c r="AK76" t="s">
         <v>171</v>
       </c>
       <c r="AL76">
-        <v>500.00200000000001</v>
+        <v>500.00900000000001</v>
       </c>
       <c r="AM76" t="s">
         <v>171</v>
       </c>
       <c r="AN76">
-        <v>500.00299999999999</v>
+        <v>500.00599999999997</v>
+      </c>
+      <c r="AO76" t="s">
+        <v>213</v>
+      </c>
+      <c r="AP76">
+        <v>499.98862400000002</v>
+      </c>
+      <c r="AQ76" t="s">
+        <v>213</v>
+      </c>
+      <c r="AR76">
+        <v>500.00011599999999</v>
       </c>
     </row>
-    <row r="77" spans="1:40" hidden="1" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:44" x14ac:dyDescent="0.25">
       <c r="A77" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="B77" t="s">
         <v>170</v>
@@ -10291,31 +11218,31 @@
         <v>171</v>
       </c>
       <c r="D77">
+        <v>500.005</v>
+      </c>
+      <c r="E77" t="s">
+        <v>171</v>
+      </c>
+      <c r="F77">
+        <v>500.00200000000001</v>
+      </c>
+      <c r="G77" t="s">
+        <v>171</v>
+      </c>
+      <c r="H77">
         <v>500.00700000000001</v>
       </c>
-      <c r="E77" t="s">
-        <v>171</v>
-      </c>
-      <c r="F77">
-        <v>500.00200000000001</v>
-      </c>
-      <c r="G77" t="s">
-        <v>171</v>
-      </c>
-      <c r="H77">
+      <c r="I77" t="s">
+        <v>171</v>
+      </c>
+      <c r="J77">
+        <v>500.00799999999998</v>
+      </c>
+      <c r="K77" t="s">
+        <v>171</v>
+      </c>
+      <c r="L77">
         <v>500.00599999999997</v>
-      </c>
-      <c r="I77" t="s">
-        <v>171</v>
-      </c>
-      <c r="J77">
-        <v>500.005</v>
-      </c>
-      <c r="K77" t="s">
-        <v>171</v>
-      </c>
-      <c r="L77">
-        <v>500.00200000000001</v>
       </c>
       <c r="M77" t="s">
         <v>171</v>
@@ -10327,43 +11254,43 @@
         <v>171</v>
       </c>
       <c r="P77">
-        <v>500.005</v>
+        <v>500.00299999999999</v>
       </c>
       <c r="Q77" t="s">
         <v>171</v>
       </c>
       <c r="R77">
-        <v>500.005</v>
+        <v>500.00799999999998</v>
       </c>
       <c r="S77" t="s">
         <v>171</v>
       </c>
       <c r="T77">
-        <v>500.01</v>
+        <v>500.02</v>
       </c>
       <c r="U77" t="s">
         <v>171</v>
       </c>
       <c r="V77">
-        <v>500.00099999999998</v>
+        <v>500.00599999999997</v>
       </c>
       <c r="W77" t="s">
         <v>171</v>
       </c>
       <c r="X77">
-        <v>500.00099999999998</v>
+        <v>500.00900000000001</v>
       </c>
       <c r="Y77" t="s">
         <v>171</v>
       </c>
       <c r="Z77">
-        <v>500.00099999999998</v>
+        <v>500.00700000000001</v>
       </c>
       <c r="AA77" t="s">
         <v>171</v>
       </c>
       <c r="AB77">
-        <v>500.00099999999998</v>
+        <v>500.00299999999999</v>
       </c>
       <c r="AC77" t="s">
         <v>171</v>
@@ -10375,36 +11302,48 @@
         <v>171</v>
       </c>
       <c r="AF77">
-        <v>500.005</v>
+        <v>500.01</v>
       </c>
       <c r="AG77" t="s">
         <v>171</v>
       </c>
       <c r="AH77">
-        <v>500.00599999999997</v>
+        <v>500.017</v>
       </c>
       <c r="AI77" t="s">
         <v>171</v>
       </c>
       <c r="AJ77">
-        <v>500.00599999999997</v>
+        <v>500.01</v>
       </c>
       <c r="AK77" t="s">
         <v>171</v>
       </c>
       <c r="AL77">
-        <v>500.00900000000001</v>
+        <v>500.01100000000002</v>
       </c>
       <c r="AM77" t="s">
         <v>171</v>
       </c>
       <c r="AN77">
-        <v>500.00599999999997</v>
+        <v>500.01400000000001</v>
+      </c>
+      <c r="AO77" t="s">
+        <v>213</v>
+      </c>
+      <c r="AP77">
+        <v>500.09482100000002</v>
+      </c>
+      <c r="AQ77" t="s">
+        <v>213</v>
+      </c>
+      <c r="AR77">
+        <v>500.000113</v>
       </c>
     </row>
-    <row r="78" spans="1:40" hidden="1" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:44" x14ac:dyDescent="0.25">
       <c r="A78" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="B78" t="s">
         <v>170</v>
@@ -10413,120 +11352,132 @@
         <v>171</v>
       </c>
       <c r="D78">
-        <v>500.005</v>
+        <v>500.42700000000002</v>
       </c>
       <c r="E78" t="s">
         <v>171</v>
       </c>
       <c r="F78">
-        <v>500.00200000000001</v>
+        <v>500.12799999999999</v>
       </c>
       <c r="G78" t="s">
         <v>171</v>
       </c>
       <c r="H78">
-        <v>500.00700000000001</v>
+        <v>500.31700000000001</v>
       </c>
       <c r="I78" t="s">
         <v>171</v>
       </c>
       <c r="J78">
-        <v>500.00799999999998</v>
+        <v>500.13749999999999</v>
       </c>
       <c r="K78" t="s">
         <v>171</v>
       </c>
       <c r="L78">
-        <v>500.00599999999997</v>
+        <v>500.05799999999999</v>
       </c>
       <c r="M78" t="s">
         <v>171</v>
       </c>
       <c r="N78">
-        <v>500.00299999999999</v>
+        <v>500.25200000000001</v>
       </c>
       <c r="O78" t="s">
         <v>171</v>
       </c>
       <c r="P78">
-        <v>500.00299999999999</v>
+        <v>500.29199999999997</v>
       </c>
       <c r="Q78" t="s">
         <v>171</v>
       </c>
       <c r="R78">
-        <v>500.00799999999998</v>
+        <v>500.64699999999999</v>
       </c>
       <c r="S78" t="s">
         <v>171</v>
       </c>
       <c r="T78">
-        <v>500.02</v>
+        <v>500.87299999999999</v>
       </c>
       <c r="U78" t="s">
         <v>171</v>
       </c>
       <c r="V78">
-        <v>500.00599999999997</v>
+        <v>500.27699999999999</v>
       </c>
       <c r="W78" t="s">
         <v>171</v>
       </c>
       <c r="X78">
-        <v>500.00900000000001</v>
+        <v>500.45699999999999</v>
       </c>
       <c r="Y78" t="s">
         <v>171</v>
       </c>
       <c r="Z78">
-        <v>500.00700000000001</v>
+        <v>500.37700000000001</v>
       </c>
       <c r="AA78" t="s">
         <v>171</v>
       </c>
       <c r="AB78">
-        <v>500.00299999999999</v>
+        <v>500.44400000000002</v>
       </c>
       <c r="AC78" t="s">
         <v>171</v>
       </c>
       <c r="AD78">
-        <v>500.005</v>
+        <v>500.02199999999999</v>
       </c>
       <c r="AE78" t="s">
         <v>171</v>
       </c>
       <c r="AF78">
-        <v>500.01</v>
+        <v>500.92899999999997</v>
       </c>
       <c r="AG78" t="s">
         <v>171</v>
       </c>
       <c r="AH78">
-        <v>500.017</v>
+        <v>500.40699999999998</v>
       </c>
       <c r="AI78" t="s">
         <v>171</v>
       </c>
       <c r="AJ78">
-        <v>500.01</v>
+        <v>500.11399999999998</v>
       </c>
       <c r="AK78" t="s">
         <v>171</v>
       </c>
       <c r="AL78">
-        <v>500.01100000000002</v>
+        <v>500.28899999999999</v>
       </c>
       <c r="AM78" t="s">
         <v>171</v>
       </c>
       <c r="AN78">
-        <v>500.01400000000001</v>
+        <v>500.20600000000002</v>
+      </c>
+      <c r="AO78" t="s">
+        <v>213</v>
+      </c>
+      <c r="AP78">
+        <v>500.09229299999998</v>
+      </c>
+      <c r="AQ78" t="s">
+        <v>213</v>
+      </c>
+      <c r="AR78">
+        <v>500.000114</v>
       </c>
     </row>
-    <row r="79" spans="1:40" hidden="1" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:44" x14ac:dyDescent="0.25">
       <c r="A79" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="B79" t="s">
         <v>170</v>
@@ -10535,120 +11486,132 @@
         <v>171</v>
       </c>
       <c r="D79">
-        <v>500.42700000000002</v>
+        <v>500.00200000000001</v>
       </c>
       <c r="E79" t="s">
         <v>171</v>
       </c>
       <c r="F79">
-        <v>500.12799999999999</v>
+        <v>500.00299999999999</v>
       </c>
       <c r="G79" t="s">
         <v>171</v>
       </c>
       <c r="H79">
-        <v>500.31700000000001</v>
+        <v>500.00299999999999</v>
       </c>
       <c r="I79" t="s">
         <v>171</v>
       </c>
       <c r="J79">
-        <v>500.13749999999999</v>
+        <v>500.00200000000001</v>
       </c>
       <c r="K79" t="s">
         <v>171</v>
       </c>
       <c r="L79">
-        <v>500.05799999999999</v>
+        <v>500.00299999999999</v>
       </c>
       <c r="M79" t="s">
         <v>171</v>
       </c>
       <c r="N79">
-        <v>500.25200000000001</v>
+        <v>500.00099999999998</v>
       </c>
       <c r="O79" t="s">
         <v>171</v>
       </c>
       <c r="P79">
-        <v>500.29199999999997</v>
+        <v>500.00099999999998</v>
       </c>
       <c r="Q79" t="s">
         <v>171</v>
       </c>
       <c r="R79">
-        <v>500.64699999999999</v>
+        <v>500.00200000000001</v>
       </c>
       <c r="S79" t="s">
         <v>171</v>
       </c>
       <c r="T79">
-        <v>500.87299999999999</v>
+        <v>500.00400000000002</v>
       </c>
       <c r="U79" t="s">
         <v>171</v>
       </c>
       <c r="V79">
-        <v>500.27699999999999</v>
+        <v>500.00200000000001</v>
       </c>
       <c r="W79" t="s">
         <v>171</v>
       </c>
       <c r="X79">
-        <v>500.45699999999999</v>
+        <v>500.00299999999999</v>
       </c>
       <c r="Y79" t="s">
         <v>171</v>
       </c>
       <c r="Z79">
-        <v>500.37700000000001</v>
+        <v>500.00099999999998</v>
       </c>
       <c r="AA79" t="s">
         <v>171</v>
       </c>
       <c r="AB79">
-        <v>500.44400000000002</v>
+        <v>500.00200000000001</v>
       </c>
       <c r="AC79" t="s">
         <v>171</v>
       </c>
       <c r="AD79">
-        <v>500.02199999999999</v>
+        <v>500.00200000000001</v>
       </c>
       <c r="AE79" t="s">
         <v>171</v>
       </c>
       <c r="AF79">
-        <v>500.92899999999997</v>
+        <v>500.00400000000002</v>
       </c>
       <c r="AG79" t="s">
         <v>171</v>
       </c>
       <c r="AH79">
-        <v>500.40699999999998</v>
+        <v>500.005</v>
       </c>
       <c r="AI79" t="s">
         <v>171</v>
       </c>
       <c r="AJ79">
-        <v>500.11399999999998</v>
+        <v>500.005</v>
       </c>
       <c r="AK79" t="s">
         <v>171</v>
       </c>
       <c r="AL79">
-        <v>500.28899999999999</v>
+        <v>500.00299999999999</v>
       </c>
       <c r="AM79" t="s">
         <v>171</v>
       </c>
       <c r="AN79">
-        <v>500.20600000000002</v>
+        <v>500.00299999999999</v>
+      </c>
+      <c r="AO79" t="s">
+        <v>213</v>
+      </c>
+      <c r="AP79">
+        <v>499.94178900000003</v>
+      </c>
+      <c r="AQ79" t="s">
+        <v>170</v>
+      </c>
+      <c r="AR79">
+        <v>1.8865559999999999</v>
       </c>
     </row>
-    <row r="80" spans="1:40" hidden="1" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:44" x14ac:dyDescent="0.25">
       <c r="A80" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="B80" t="s">
         <v>170</v>
@@ -10657,13 +11620,13 @@
         <v>171</v>
       </c>
       <c r="D80">
-        <v>500.00200000000001</v>
+        <v>500.00299999999999</v>
       </c>
       <c r="E80" t="s">
         <v>171</v>
       </c>
       <c r="F80">
-        <v>500.00299999999999</v>
+        <v>500.00099999999998</v>
       </c>
       <c r="G80" t="s">
         <v>171</v>
@@ -10681,25 +11644,25 @@
         <v>171</v>
       </c>
       <c r="L80">
+        <v>500.00099999999998</v>
+      </c>
+      <c r="M80" t="s">
+        <v>171</v>
+      </c>
+      <c r="N80">
+        <v>500.00200000000001</v>
+      </c>
+      <c r="O80" t="s">
+        <v>171</v>
+      </c>
+      <c r="P80">
+        <v>500.00200000000001</v>
+      </c>
+      <c r="Q80" t="s">
+        <v>171</v>
+      </c>
+      <c r="R80">
         <v>500.00299999999999</v>
-      </c>
-      <c r="M80" t="s">
-        <v>171</v>
-      </c>
-      <c r="N80">
-        <v>500.00099999999998</v>
-      </c>
-      <c r="O80" t="s">
-        <v>171</v>
-      </c>
-      <c r="P80">
-        <v>500.00099999999998</v>
-      </c>
-      <c r="Q80" t="s">
-        <v>171</v>
-      </c>
-      <c r="R80">
-        <v>500.00200000000001</v>
       </c>
       <c r="S80" t="s">
         <v>171</v>
@@ -10711,26 +11674,26 @@
         <v>171</v>
       </c>
       <c r="V80">
-        <v>500.00200000000001</v>
+        <v>500.00299999999999</v>
       </c>
       <c r="W80" t="s">
         <v>171</v>
       </c>
       <c r="X80">
+        <v>500.00200000000001</v>
+      </c>
+      <c r="Y80" t="s">
+        <v>171</v>
+      </c>
+      <c r="Z80">
+        <v>500.00400000000002</v>
+      </c>
+      <c r="AA80" t="s">
+        <v>171</v>
+      </c>
+      <c r="AB80">
         <v>500.00299999999999</v>
       </c>
-      <c r="Y80" t="s">
-        <v>171</v>
-      </c>
-      <c r="Z80">
-        <v>500.00099999999998</v>
-      </c>
-      <c r="AA80" t="s">
-        <v>171</v>
-      </c>
-      <c r="AB80">
-        <v>500.00200000000001</v>
-      </c>
       <c r="AC80" t="s">
         <v>171</v>
       </c>
@@ -10741,99 +11704,111 @@
         <v>171</v>
       </c>
       <c r="AF80">
+        <v>500.00299999999999</v>
+      </c>
+      <c r="AG80" t="s">
+        <v>171</v>
+      </c>
+      <c r="AH80">
+        <v>500.00299999999999</v>
+      </c>
+      <c r="AI80" t="s">
+        <v>171</v>
+      </c>
+      <c r="AJ80">
+        <v>500.00200000000001</v>
+      </c>
+      <c r="AK80" t="s">
+        <v>171</v>
+      </c>
+      <c r="AL80">
         <v>500.00400000000002</v>
       </c>
-      <c r="AG80" t="s">
-        <v>171</v>
-      </c>
-      <c r="AH80">
+      <c r="AM80" t="s">
+        <v>171</v>
+      </c>
+      <c r="AN80">
+        <v>500.00400000000002</v>
+      </c>
+      <c r="AO80" t="s">
+        <v>213</v>
+      </c>
+      <c r="AP80">
+        <v>499.93034299999999</v>
+      </c>
+      <c r="AQ80" t="s">
+        <v>170</v>
+      </c>
+      <c r="AR80">
+        <v>4.7943980000000002</v>
+      </c>
+    </row>
+    <row r="81" spans="1:44" x14ac:dyDescent="0.25">
+      <c r="A81" t="s">
+        <v>75</v>
+      </c>
+      <c r="B81" t="s">
+        <v>168</v>
+      </c>
+      <c r="C81" t="s">
+        <v>171</v>
+      </c>
+      <c r="D81">
+        <v>500.00400000000002</v>
+      </c>
+      <c r="E81" t="s">
+        <v>171</v>
+      </c>
+      <c r="F81">
+        <v>500.00200000000001</v>
+      </c>
+      <c r="G81" t="s">
+        <v>171</v>
+      </c>
+      <c r="H81">
+        <v>500.00200000000001</v>
+      </c>
+      <c r="I81" t="s">
+        <v>171</v>
+      </c>
+      <c r="J81">
+        <v>500.00099999999998</v>
+      </c>
+      <c r="K81" t="s">
+        <v>171</v>
+      </c>
+      <c r="L81">
+        <v>500.00299999999999</v>
+      </c>
+      <c r="M81" t="s">
+        <v>171</v>
+      </c>
+      <c r="N81">
+        <v>500.00200000000001</v>
+      </c>
+      <c r="O81" t="s">
+        <v>171</v>
+      </c>
+      <c r="P81">
+        <v>500.00400000000002</v>
+      </c>
+      <c r="Q81" t="s">
+        <v>171</v>
+      </c>
+      <c r="R81">
         <v>500.005</v>
       </c>
-      <c r="AI80" t="s">
-        <v>171</v>
-      </c>
-      <c r="AJ80">
+      <c r="S81" t="s">
+        <v>171</v>
+      </c>
+      <c r="T81">
         <v>500.005</v>
       </c>
-      <c r="AK80" t="s">
-        <v>171</v>
-      </c>
-      <c r="AL80">
-        <v>500.00299999999999</v>
-      </c>
-      <c r="AM80" t="s">
-        <v>171</v>
-      </c>
-      <c r="AN80">
-        <v>500.00299999999999</v>
-      </c>
-    </row>
-    <row r="81" spans="1:40" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A81" t="s">
-        <v>80</v>
-      </c>
-      <c r="B81" t="s">
-        <v>170</v>
-      </c>
-      <c r="C81" t="s">
-        <v>171</v>
-      </c>
-      <c r="D81">
-        <v>500.00299999999999</v>
-      </c>
-      <c r="E81" t="s">
-        <v>171</v>
-      </c>
-      <c r="F81">
-        <v>500.00099999999998</v>
-      </c>
-      <c r="G81" t="s">
-        <v>171</v>
-      </c>
-      <c r="H81">
-        <v>500.00299999999999</v>
-      </c>
-      <c r="I81" t="s">
-        <v>171</v>
-      </c>
-      <c r="J81">
-        <v>500.00200000000001</v>
-      </c>
-      <c r="K81" t="s">
-        <v>171</v>
-      </c>
-      <c r="L81">
-        <v>500.00099999999998</v>
-      </c>
-      <c r="M81" t="s">
-        <v>171</v>
-      </c>
-      <c r="N81">
-        <v>500.00200000000001</v>
-      </c>
-      <c r="O81" t="s">
-        <v>171</v>
-      </c>
-      <c r="P81">
-        <v>500.00200000000001</v>
-      </c>
-      <c r="Q81" t="s">
-        <v>171</v>
-      </c>
-      <c r="R81">
-        <v>500.00299999999999</v>
-      </c>
-      <c r="S81" t="s">
-        <v>171</v>
-      </c>
-      <c r="T81">
-        <v>500.00400000000002</v>
-      </c>
       <c r="U81" t="s">
         <v>171</v>
       </c>
       <c r="V81">
-        <v>500.00299999999999</v>
+        <v>500.00099999999998</v>
       </c>
       <c r="W81" t="s">
         <v>171</v>
@@ -10845,7 +11820,7 @@
         <v>171</v>
       </c>
       <c r="Z81">
-        <v>500.00400000000002</v>
+        <v>500.00099999999998</v>
       </c>
       <c r="AA81" t="s">
         <v>171</v>
@@ -10863,34 +11838,46 @@
         <v>171</v>
       </c>
       <c r="AF81">
+        <v>500.00200000000001</v>
+      </c>
+      <c r="AG81" t="s">
+        <v>171</v>
+      </c>
+      <c r="AH81">
+        <v>500.00200000000001</v>
+      </c>
+      <c r="AI81" t="s">
+        <v>171</v>
+      </c>
+      <c r="AJ81">
+        <v>500.00200000000001</v>
+      </c>
+      <c r="AK81" t="s">
+        <v>171</v>
+      </c>
+      <c r="AL81">
+        <v>500.00200000000001</v>
+      </c>
+      <c r="AM81" t="s">
+        <v>171</v>
+      </c>
+      <c r="AN81">
         <v>500.00299999999999</v>
       </c>
-      <c r="AG81" t="s">
-        <v>171</v>
-      </c>
-      <c r="AH81">
-        <v>500.00299999999999</v>
-      </c>
-      <c r="AI81" t="s">
-        <v>171</v>
-      </c>
-      <c r="AJ81">
-        <v>500.00200000000001</v>
-      </c>
-      <c r="AK81" t="s">
-        <v>171</v>
-      </c>
-      <c r="AL81">
-        <v>500.00400000000002</v>
-      </c>
-      <c r="AM81" t="s">
-        <v>171</v>
-      </c>
-      <c r="AN81">
-        <v>500.00400000000002</v>
+      <c r="AO81" t="s">
+        <v>168</v>
+      </c>
+      <c r="AP81">
+        <v>1.1924049999999999</v>
+      </c>
+      <c r="AQ81" t="s">
+        <v>168</v>
+      </c>
+      <c r="AR81">
+        <v>2.0154649999999998</v>
       </c>
     </row>
-    <row r="82" spans="1:40" hidden="1" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:44" x14ac:dyDescent="0.25">
       <c r="A82" t="s">
         <v>81</v>
       </c>
@@ -11011,8 +11998,20 @@
       <c r="AN82">
         <v>500.00299999999999</v>
       </c>
+      <c r="AO82" t="s">
+        <v>169</v>
+      </c>
+      <c r="AP82">
+        <v>0.122518</v>
+      </c>
+      <c r="AQ82" t="s">
+        <v>170</v>
+      </c>
+      <c r="AR82">
+        <v>237.94521700000001</v>
+      </c>
     </row>
-    <row r="83" spans="1:40" hidden="1" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:44" x14ac:dyDescent="0.25">
       <c r="A83" t="s">
         <v>82</v>
       </c>
@@ -11133,8 +12132,20 @@
       <c r="AN83">
         <v>500.00299999999999</v>
       </c>
+      <c r="AO83" t="s">
+        <v>213</v>
+      </c>
+      <c r="AP83">
+        <v>499.97945700000002</v>
+      </c>
+      <c r="AQ83" t="s">
+        <v>170</v>
+      </c>
+      <c r="AR83">
+        <v>188.36001200000001</v>
+      </c>
     </row>
-    <row r="84" spans="1:40" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:44" x14ac:dyDescent="0.25">
       <c r="A84" t="s">
         <v>83</v>
       </c>
@@ -11255,8 +12266,20 @@
       <c r="AN84">
         <v>1.5997999999999998E-2</v>
       </c>
+      <c r="AO84" t="s">
+        <v>169</v>
+      </c>
+      <c r="AP84">
+        <v>1.0957E-2</v>
+      </c>
+      <c r="AQ84" t="s">
+        <v>169</v>
+      </c>
+      <c r="AR84">
+        <v>1.5408E-2</v>
+      </c>
     </row>
-    <row r="85" spans="1:40" hidden="1" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:44" x14ac:dyDescent="0.25">
       <c r="A85" t="s">
         <v>84</v>
       </c>
@@ -11377,8 +12400,20 @@
       <c r="AN85">
         <v>500.00200000000001</v>
       </c>
+      <c r="AO85" t="s">
+        <v>169</v>
+      </c>
+      <c r="AP85">
+        <v>9.1070000000000005E-3</v>
+      </c>
+      <c r="AQ85" t="s">
+        <v>170</v>
+      </c>
+      <c r="AR85">
+        <v>9.9995000000000001E-2</v>
+      </c>
     </row>
-    <row r="86" spans="1:40" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:44" x14ac:dyDescent="0.25">
       <c r="A86" t="s">
         <v>85</v>
       </c>
@@ -11499,8 +12534,20 @@
       <c r="AN86">
         <v>9.9989999999999992E-3</v>
       </c>
+      <c r="AO86" t="s">
+        <v>169</v>
+      </c>
+      <c r="AP86">
+        <v>2.3772000000000001E-2</v>
+      </c>
+      <c r="AQ86" t="s">
+        <v>169</v>
+      </c>
+      <c r="AR86">
+        <v>2.1919999999999999E-2</v>
+      </c>
     </row>
-    <row r="87" spans="1:40" hidden="1" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:44" x14ac:dyDescent="0.25">
       <c r="A87" t="s">
         <v>86</v>
       </c>
@@ -11621,8 +12668,20 @@
       <c r="AN87">
         <v>500.00200000000001</v>
       </c>
+      <c r="AO87" t="s">
+        <v>213</v>
+      </c>
+      <c r="AP87">
+        <v>500.00709499999999</v>
+      </c>
+      <c r="AQ87" t="s">
+        <v>170</v>
+      </c>
+      <c r="AR87">
+        <v>23.141546000000002</v>
+      </c>
     </row>
-    <row r="88" spans="1:40" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:44" x14ac:dyDescent="0.25">
       <c r="A88" t="s">
         <v>87</v>
       </c>
@@ -11743,8 +12802,20 @@
       <c r="AN88">
         <v>500.00200000000001</v>
       </c>
+      <c r="AO88" t="s">
+        <v>168</v>
+      </c>
+      <c r="AP88">
+        <v>255.887843</v>
+      </c>
+      <c r="AQ88" t="s">
+        <v>170</v>
+      </c>
+      <c r="AR88">
+        <v>1.340214</v>
+      </c>
     </row>
-    <row r="89" spans="1:40" hidden="1" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:44" x14ac:dyDescent="0.25">
       <c r="A89" t="s">
         <v>88</v>
       </c>
@@ -11865,8 +12936,20 @@
       <c r="AN89">
         <v>500.00299999999999</v>
       </c>
+      <c r="AO89" t="s">
+        <v>168</v>
+      </c>
+      <c r="AP89">
+        <v>252.07616899999999</v>
+      </c>
+      <c r="AQ89" t="s">
+        <v>170</v>
+      </c>
+      <c r="AR89">
+        <v>3.777139</v>
+      </c>
     </row>
-    <row r="90" spans="1:40" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:44" x14ac:dyDescent="0.25">
       <c r="A90" t="s">
         <v>89</v>
       </c>
@@ -11987,8 +13070,20 @@
       <c r="AN90">
         <v>500.00200000000001</v>
       </c>
+      <c r="AO90" t="s">
+        <v>168</v>
+      </c>
+      <c r="AP90">
+        <v>1.4976E-2</v>
+      </c>
+      <c r="AQ90" t="s">
+        <v>170</v>
+      </c>
+      <c r="AR90">
+        <v>2.2790879999999998</v>
+      </c>
     </row>
-    <row r="91" spans="1:40" hidden="1" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:44" x14ac:dyDescent="0.25">
       <c r="A91" t="s">
         <v>90</v>
       </c>
@@ -12109,8 +13204,20 @@
       <c r="AN91">
         <v>500.00299999999999</v>
       </c>
+      <c r="AO91" t="s">
+        <v>213</v>
+      </c>
+      <c r="AP91">
+        <v>499.94734999999997</v>
+      </c>
+      <c r="AQ91" t="s">
+        <v>170</v>
+      </c>
+      <c r="AR91">
+        <v>0.49627900000000003</v>
+      </c>
     </row>
-    <row r="92" spans="1:40" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:44" x14ac:dyDescent="0.25">
       <c r="A92" t="s">
         <v>91</v>
       </c>
@@ -12231,8 +13338,20 @@
       <c r="AN92">
         <v>500.00400000000002</v>
       </c>
+      <c r="AO92" t="s">
+        <v>213</v>
+      </c>
+      <c r="AP92">
+        <v>499.98188800000003</v>
+      </c>
+      <c r="AQ92" t="s">
+        <v>168</v>
+      </c>
+      <c r="AR92">
+        <v>190.952181</v>
+      </c>
     </row>
-    <row r="93" spans="1:40" hidden="1" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:44" x14ac:dyDescent="0.25">
       <c r="A93" t="s">
         <v>92</v>
       </c>
@@ -12353,8 +13472,20 @@
       <c r="AN93">
         <v>500.00299999999999</v>
       </c>
+      <c r="AO93" t="s">
+        <v>168</v>
+      </c>
+      <c r="AP93">
+        <v>39.621411000000002</v>
+      </c>
+      <c r="AQ93" t="s">
+        <v>170</v>
+      </c>
+      <c r="AR93">
+        <v>1.1626970000000001</v>
+      </c>
     </row>
-    <row r="94" spans="1:40" hidden="1" x14ac:dyDescent="0.25">
+    <row r="94" spans="1:44" x14ac:dyDescent="0.25">
       <c r="A94" t="s">
         <v>93</v>
       </c>
@@ -12475,8 +13606,20 @@
       <c r="AN94">
         <v>500.005</v>
       </c>
+      <c r="AO94" t="s">
+        <v>213</v>
+      </c>
+      <c r="AP94">
+        <v>499.96324800000002</v>
+      </c>
+      <c r="AQ94" t="s">
+        <v>213</v>
+      </c>
+      <c r="AR94">
+        <v>500.00012199999998</v>
+      </c>
     </row>
-    <row r="95" spans="1:40" hidden="1" x14ac:dyDescent="0.25">
+    <row r="95" spans="1:44" x14ac:dyDescent="0.25">
       <c r="A95" t="s">
         <v>94</v>
       </c>
@@ -12597,8 +13740,20 @@
       <c r="AN95">
         <v>500.00200000000001</v>
       </c>
+      <c r="AO95" t="s">
+        <v>213</v>
+      </c>
+      <c r="AP95">
+        <v>499.94197400000002</v>
+      </c>
+      <c r="AQ95" t="s">
+        <v>169</v>
+      </c>
+      <c r="AR95">
+        <v>0.364923</v>
+      </c>
     </row>
-    <row r="96" spans="1:40" hidden="1" x14ac:dyDescent="0.25">
+    <row r="96" spans="1:44" x14ac:dyDescent="0.25">
       <c r="A96" t="s">
         <v>95</v>
       </c>
@@ -12719,8 +13874,20 @@
       <c r="AN96">
         <v>500.01400000000001</v>
       </c>
+      <c r="AO96" t="s">
+        <v>213</v>
+      </c>
+      <c r="AP96">
+        <v>500.05265400000002</v>
+      </c>
+      <c r="AQ96" t="s">
+        <v>213</v>
+      </c>
+      <c r="AR96">
+        <v>500.00038699999999</v>
+      </c>
     </row>
-    <row r="97" spans="1:40" hidden="1" x14ac:dyDescent="0.25">
+    <row r="97" spans="1:44" x14ac:dyDescent="0.25">
       <c r="A97" t="s">
         <v>96</v>
       </c>
@@ -12841,8 +14008,20 @@
       <c r="AN97">
         <v>500.03</v>
       </c>
+      <c r="AO97" t="s">
+        <v>213</v>
+      </c>
+      <c r="AP97">
+        <v>499.99556999999999</v>
+      </c>
+      <c r="AQ97" t="s">
+        <v>213</v>
+      </c>
+      <c r="AR97">
+        <v>500.00016699999998</v>
+      </c>
     </row>
-    <row r="98" spans="1:40" hidden="1" x14ac:dyDescent="0.25">
+    <row r="98" spans="1:44" x14ac:dyDescent="0.25">
       <c r="A98" t="s">
         <v>97</v>
       </c>
@@ -12963,8 +14142,20 @@
       <c r="AN98">
         <v>500.25799999999998</v>
       </c>
+      <c r="AO98" t="s">
+        <v>213</v>
+      </c>
+      <c r="AP98">
+        <v>500.24265600000001</v>
+      </c>
+      <c r="AQ98" t="s">
+        <v>213</v>
+      </c>
+      <c r="AR98">
+        <v>500.00011499999999</v>
+      </c>
     </row>
-    <row r="99" spans="1:40" hidden="1" x14ac:dyDescent="0.25">
+    <row r="99" spans="1:44" x14ac:dyDescent="0.25">
       <c r="A99" t="s">
         <v>98</v>
       </c>
@@ -13085,8 +14276,20 @@
       <c r="AN99">
         <v>500.05700000000002</v>
       </c>
+      <c r="AO99" t="s">
+        <v>213</v>
+      </c>
+      <c r="AP99">
+        <v>499.98892999999998</v>
+      </c>
+      <c r="AQ99" t="s">
+        <v>213</v>
+      </c>
+      <c r="AR99">
+        <v>500.00015300000001</v>
+      </c>
     </row>
-    <row r="100" spans="1:40" hidden="1" x14ac:dyDescent="0.25">
+    <row r="100" spans="1:44" x14ac:dyDescent="0.25">
       <c r="A100" t="s">
         <v>99</v>
       </c>
@@ -13207,8 +14410,20 @@
       <c r="AN100">
         <v>500.00900000000001</v>
       </c>
+      <c r="AO100" t="s">
+        <v>213</v>
+      </c>
+      <c r="AP100">
+        <v>499.94716799999998</v>
+      </c>
+      <c r="AQ100" t="s">
+        <v>213</v>
+      </c>
+      <c r="AR100">
+        <v>500.000157</v>
+      </c>
     </row>
-    <row r="101" spans="1:40" hidden="1" x14ac:dyDescent="0.25">
+    <row r="101" spans="1:44" x14ac:dyDescent="0.25">
       <c r="A101" t="s">
         <v>100</v>
       </c>
@@ -13329,8 +14544,20 @@
       <c r="AN101">
         <v>500.012</v>
       </c>
+      <c r="AO101" t="s">
+        <v>213</v>
+      </c>
+      <c r="AP101">
+        <v>499.96103399999998</v>
+      </c>
+      <c r="AQ101" t="s">
+        <v>213</v>
+      </c>
+      <c r="AR101">
+        <v>500.00012500000003</v>
+      </c>
     </row>
-    <row r="102" spans="1:40" hidden="1" x14ac:dyDescent="0.25">
+    <row r="102" spans="1:44" x14ac:dyDescent="0.25">
       <c r="A102" t="s">
         <v>101</v>
       </c>
@@ -13451,8 +14678,17 @@
       <c r="AN102">
         <v>500.08699999999999</v>
       </c>
+      <c r="AO102" t="s">
+        <v>213</v>
+      </c>
+      <c r="AP102">
+        <v>500.13261299999999</v>
+      </c>
+      <c r="AR102">
+        <v>28.373449000000001</v>
+      </c>
     </row>
-    <row r="103" spans="1:40" x14ac:dyDescent="0.25">
+    <row r="103" spans="1:44" x14ac:dyDescent="0.25">
       <c r="A103" t="s">
         <v>102</v>
       </c>
@@ -13573,8 +14809,20 @@
       <c r="AN103">
         <v>1.5997999999999998E-2</v>
       </c>
+      <c r="AO103" t="s">
+        <v>169</v>
+      </c>
+      <c r="AP103">
+        <v>1.8204999999999999E-2</v>
+      </c>
+      <c r="AQ103" t="s">
+        <v>169</v>
+      </c>
+      <c r="AR103">
+        <v>1.5633000000000001E-2</v>
+      </c>
     </row>
-    <row r="104" spans="1:40" x14ac:dyDescent="0.25">
+    <row r="104" spans="1:44" x14ac:dyDescent="0.25">
       <c r="A104" t="s">
         <v>103</v>
       </c>
@@ -13695,8 +14943,20 @@
       <c r="AN104">
         <v>500.00400000000002</v>
       </c>
+      <c r="AO104" t="s">
+        <v>213</v>
+      </c>
+      <c r="AP104">
+        <v>499.97515299999998</v>
+      </c>
+      <c r="AQ104" t="s">
+        <v>213</v>
+      </c>
+      <c r="AR104">
+        <v>500.00010600000002</v>
+      </c>
     </row>
-    <row r="105" spans="1:40" hidden="1" x14ac:dyDescent="0.25">
+    <row r="105" spans="1:44" x14ac:dyDescent="0.25">
       <c r="A105" t="s">
         <v>104</v>
       </c>
@@ -13817,8 +15077,20 @@
       <c r="AN105">
         <v>500.00200000000001</v>
       </c>
+      <c r="AO105" t="s">
+        <v>169</v>
+      </c>
+      <c r="AP105">
+        <v>1.4959E-2</v>
+      </c>
+      <c r="AQ105" t="s">
+        <v>213</v>
+      </c>
+      <c r="AR105">
+        <v>500.000227</v>
+      </c>
     </row>
-    <row r="106" spans="1:40" x14ac:dyDescent="0.25">
+    <row r="106" spans="1:44" x14ac:dyDescent="0.25">
       <c r="A106" t="s">
         <v>105</v>
       </c>
@@ -13939,8 +15211,20 @@
       <c r="AN106">
         <v>2.0996999999999998E-2</v>
       </c>
+      <c r="AO106" t="s">
+        <v>213</v>
+      </c>
+      <c r="AP106">
+        <v>499.98463900000002</v>
+      </c>
+      <c r="AQ106" t="s">
+        <v>169</v>
+      </c>
+      <c r="AR106">
+        <v>2.4820999999999999E-2</v>
+      </c>
     </row>
-    <row r="107" spans="1:40" hidden="1" x14ac:dyDescent="0.25">
+    <row r="107" spans="1:44" x14ac:dyDescent="0.25">
       <c r="A107" t="s">
         <v>106</v>
       </c>
@@ -14061,8 +15345,20 @@
       <c r="AN107">
         <v>500.00200000000001</v>
       </c>
+      <c r="AO107" t="s">
+        <v>213</v>
+      </c>
+      <c r="AP107">
+        <v>499.99670700000001</v>
+      </c>
+      <c r="AQ107" t="s">
+        <v>170</v>
+      </c>
+      <c r="AR107">
+        <v>3.3983629999999998</v>
+      </c>
     </row>
-    <row r="108" spans="1:40" hidden="1" x14ac:dyDescent="0.25">
+    <row r="108" spans="1:44" x14ac:dyDescent="0.25">
       <c r="A108" t="s">
         <v>107</v>
       </c>
@@ -14183,8 +15479,20 @@
       <c r="AN108">
         <v>500.00299999999999</v>
       </c>
+      <c r="AO108" t="s">
+        <v>213</v>
+      </c>
+      <c r="AP108">
+        <v>499.97672699999998</v>
+      </c>
+      <c r="AQ108" t="s">
+        <v>168</v>
+      </c>
+      <c r="AR108">
+        <v>3.4367830000000001</v>
+      </c>
     </row>
-    <row r="109" spans="1:40" x14ac:dyDescent="0.25">
+    <row r="109" spans="1:44" x14ac:dyDescent="0.25">
       <c r="A109" t="s">
         <v>108</v>
       </c>
@@ -14305,8 +15613,20 @@
       <c r="AN109">
         <v>500.00200000000001</v>
       </c>
+      <c r="AO109" t="s">
+        <v>213</v>
+      </c>
+      <c r="AP109">
+        <v>499.99481300000002</v>
+      </c>
+      <c r="AQ109" t="s">
+        <v>170</v>
+      </c>
+      <c r="AR109">
+        <v>12.940542000000001</v>
+      </c>
     </row>
-    <row r="110" spans="1:40" hidden="1" x14ac:dyDescent="0.25">
+    <row r="110" spans="1:44" x14ac:dyDescent="0.25">
       <c r="A110" t="s">
         <v>109</v>
       </c>
@@ -14427,8 +15747,20 @@
       <c r="AN110">
         <v>500.00900000000001</v>
       </c>
+      <c r="AO110" t="s">
+        <v>213</v>
+      </c>
+      <c r="AP110">
+        <v>500.04884199999998</v>
+      </c>
+      <c r="AQ110" t="s">
+        <v>213</v>
+      </c>
+      <c r="AR110">
+        <v>500.00010600000002</v>
+      </c>
     </row>
-    <row r="111" spans="1:40" hidden="1" x14ac:dyDescent="0.25">
+    <row r="111" spans="1:44" x14ac:dyDescent="0.25">
       <c r="A111" t="s">
         <v>110</v>
       </c>
@@ -14549,8 +15881,20 @@
       <c r="AN111">
         <v>500.012</v>
       </c>
+      <c r="AO111" t="s">
+        <v>168</v>
+      </c>
+      <c r="AP111">
+        <v>5.1991000000000002E-2</v>
+      </c>
+      <c r="AQ111" t="s">
+        <v>213</v>
+      </c>
+      <c r="AR111">
+        <v>500.00013100000001</v>
+      </c>
     </row>
-    <row r="112" spans="1:40" hidden="1" x14ac:dyDescent="0.25">
+    <row r="112" spans="1:44" x14ac:dyDescent="0.25">
       <c r="A112" t="s">
         <v>111</v>
       </c>
@@ -14671,8 +16015,20 @@
       <c r="AN112">
         <v>500.73899999999998</v>
       </c>
+      <c r="AO112" t="s">
+        <v>213</v>
+      </c>
+      <c r="AP112">
+        <v>500.10648400000002</v>
+      </c>
+      <c r="AQ112" t="s">
+        <v>213</v>
+      </c>
+      <c r="AR112">
+        <v>500.00013799999999</v>
+      </c>
     </row>
-    <row r="113" spans="1:40" hidden="1" x14ac:dyDescent="0.25">
+    <row r="113" spans="1:44" x14ac:dyDescent="0.25">
       <c r="A113" t="s">
         <v>112</v>
       </c>
@@ -14793,8 +16149,20 @@
       <c r="AN113">
         <v>500.03199999999998</v>
       </c>
+      <c r="AO113" t="s">
+        <v>213</v>
+      </c>
+      <c r="AP113">
+        <v>500.11689200000001</v>
+      </c>
+      <c r="AQ113" t="s">
+        <v>213</v>
+      </c>
+      <c r="AR113">
+        <v>500.00016399999998</v>
+      </c>
     </row>
-    <row r="114" spans="1:40" hidden="1" x14ac:dyDescent="0.25">
+    <row r="114" spans="1:44" x14ac:dyDescent="0.25">
       <c r="A114" t="s">
         <v>113</v>
       </c>
@@ -14915,8 +16283,20 @@
       <c r="AN114">
         <v>500.05599999999998</v>
       </c>
+      <c r="AO114" t="s">
+        <v>213</v>
+      </c>
+      <c r="AP114">
+        <v>499.95369699999998</v>
+      </c>
+      <c r="AQ114" t="s">
+        <v>213</v>
+      </c>
+      <c r="AR114">
+        <v>500.000113</v>
+      </c>
     </row>
-    <row r="115" spans="1:40" hidden="1" x14ac:dyDescent="0.25">
+    <row r="115" spans="1:44" x14ac:dyDescent="0.25">
       <c r="A115" t="s">
         <v>114</v>
       </c>
@@ -15037,8 +16417,17 @@
       <c r="AN115">
         <v>500.33699999999999</v>
       </c>
+      <c r="AO115" t="s">
+        <v>213</v>
+      </c>
+      <c r="AP115">
+        <v>499.956459</v>
+      </c>
+      <c r="AR115">
+        <v>173.95667</v>
+      </c>
     </row>
-    <row r="116" spans="1:40" hidden="1" x14ac:dyDescent="0.25">
+    <row r="116" spans="1:44" x14ac:dyDescent="0.25">
       <c r="A116" t="s">
         <v>115</v>
       </c>
@@ -15159,8 +16548,17 @@
       <c r="AN116">
         <v>500.96600000000001</v>
       </c>
+      <c r="AO116" t="s">
+        <v>213</v>
+      </c>
+      <c r="AP116">
+        <v>499.95780999999999</v>
+      </c>
+      <c r="AR116">
+        <v>283.344247</v>
+      </c>
     </row>
-    <row r="117" spans="1:40" hidden="1" x14ac:dyDescent="0.25">
+    <row r="117" spans="1:44" x14ac:dyDescent="0.25">
       <c r="A117" t="s">
         <v>116</v>
       </c>
@@ -15281,8 +16679,20 @@
       <c r="AN117">
         <v>500.05799999999999</v>
       </c>
+      <c r="AO117" t="s">
+        <v>168</v>
+      </c>
+      <c r="AP117">
+        <v>0.24796799999999999</v>
+      </c>
+      <c r="AQ117" t="s">
+        <v>213</v>
+      </c>
+      <c r="AR117">
+        <v>500.00016199999999</v>
+      </c>
     </row>
-    <row r="118" spans="1:40" hidden="1" x14ac:dyDescent="0.25">
+    <row r="118" spans="1:44" x14ac:dyDescent="0.25">
       <c r="A118" t="s">
         <v>117</v>
       </c>
@@ -15403,8 +16813,20 @@
       <c r="AN118">
         <v>500.00700000000001</v>
       </c>
+      <c r="AO118" t="s">
+        <v>213</v>
+      </c>
+      <c r="AP118">
+        <v>500.08587599999998</v>
+      </c>
+      <c r="AQ118" t="s">
+        <v>213</v>
+      </c>
+      <c r="AR118">
+        <v>500.00012800000002</v>
+      </c>
     </row>
-    <row r="119" spans="1:40" hidden="1" x14ac:dyDescent="0.25">
+    <row r="119" spans="1:44" x14ac:dyDescent="0.25">
       <c r="A119" t="s">
         <v>118</v>
       </c>
@@ -15525,8 +16947,20 @@
       <c r="AN119">
         <v>500.04300000000001</v>
       </c>
+      <c r="AO119" t="s">
+        <v>213</v>
+      </c>
+      <c r="AP119">
+        <v>499.99735500000003</v>
+      </c>
+      <c r="AQ119" t="s">
+        <v>213</v>
+      </c>
+      <c r="AR119">
+        <v>500.00015400000001</v>
+      </c>
     </row>
-    <row r="120" spans="1:40" hidden="1" x14ac:dyDescent="0.25">
+    <row r="120" spans="1:44" x14ac:dyDescent="0.25">
       <c r="A120" t="s">
         <v>119</v>
       </c>
@@ -15647,8 +17081,20 @@
       <c r="AN120">
         <v>500.03699999999998</v>
       </c>
+      <c r="AO120" t="s">
+        <v>213</v>
+      </c>
+      <c r="AP120">
+        <v>500.05971799999998</v>
+      </c>
+      <c r="AQ120" t="s">
+        <v>213</v>
+      </c>
+      <c r="AR120">
+        <v>500.00014599999997</v>
+      </c>
     </row>
-    <row r="121" spans="1:40" hidden="1" x14ac:dyDescent="0.25">
+    <row r="121" spans="1:44" x14ac:dyDescent="0.25">
       <c r="A121" t="s">
         <v>120</v>
       </c>
@@ -15769,8 +17215,20 @@
       <c r="AN121">
         <v>500.03800000000001</v>
       </c>
+      <c r="AO121" t="s">
+        <v>213</v>
+      </c>
+      <c r="AP121">
+        <v>499.99636099999998</v>
+      </c>
+      <c r="AQ121" t="s">
+        <v>213</v>
+      </c>
+      <c r="AR121">
+        <v>500.00014499999997</v>
+      </c>
     </row>
-    <row r="122" spans="1:40" hidden="1" x14ac:dyDescent="0.25">
+    <row r="122" spans="1:44" x14ac:dyDescent="0.25">
       <c r="A122" t="s">
         <v>121</v>
       </c>
@@ -15891,8 +17349,20 @@
       <c r="AN122">
         <v>500.68400000000003</v>
       </c>
+      <c r="AO122" t="s">
+        <v>213</v>
+      </c>
+      <c r="AP122">
+        <v>500.01942400000001</v>
+      </c>
+      <c r="AQ122" t="s">
+        <v>213</v>
+      </c>
+      <c r="AR122">
+        <v>500.000114</v>
+      </c>
     </row>
-    <row r="123" spans="1:40" hidden="1" x14ac:dyDescent="0.25">
+    <row r="123" spans="1:44" x14ac:dyDescent="0.25">
       <c r="A123" t="s">
         <v>122</v>
       </c>
@@ -16013,8 +17483,17 @@
       <c r="AN123">
         <v>501.334</v>
       </c>
+      <c r="AO123" t="s">
+        <v>213</v>
+      </c>
+      <c r="AP123">
+        <v>499.98263100000003</v>
+      </c>
+      <c r="AR123">
+        <v>34.670329000000002</v>
+      </c>
     </row>
-    <row r="124" spans="1:40" hidden="1" x14ac:dyDescent="0.25">
+    <row r="124" spans="1:44" x14ac:dyDescent="0.25">
       <c r="A124" t="s">
         <v>123</v>
       </c>
@@ -16135,8 +17614,17 @@
       <c r="AN124">
         <v>501.24200000000002</v>
       </c>
+      <c r="AO124" t="s">
+        <v>213</v>
+      </c>
+      <c r="AP124">
+        <v>499.96779500000002</v>
+      </c>
+      <c r="AR124">
+        <v>280.98076600000002</v>
+      </c>
     </row>
-    <row r="125" spans="1:40" x14ac:dyDescent="0.25">
+    <row r="125" spans="1:44" x14ac:dyDescent="0.25">
       <c r="A125" t="s">
         <v>124</v>
       </c>
@@ -16257,8 +17745,20 @@
       <c r="AN125">
         <v>500.00299999999999</v>
       </c>
+      <c r="AO125" t="s">
+        <v>168</v>
+      </c>
+      <c r="AP125">
+        <v>6.0838000000000003E-2</v>
+      </c>
+      <c r="AQ125" t="s">
+        <v>213</v>
+      </c>
+      <c r="AR125">
+        <v>500.00021800000002</v>
+      </c>
     </row>
-    <row r="126" spans="1:40" hidden="1" x14ac:dyDescent="0.25">
+    <row r="126" spans="1:44" x14ac:dyDescent="0.25">
       <c r="A126" t="s">
         <v>125</v>
       </c>
@@ -16379,8 +17879,20 @@
       <c r="AN126">
         <v>500.005</v>
       </c>
+      <c r="AO126" t="s">
+        <v>213</v>
+      </c>
+      <c r="AP126">
+        <v>499.92891600000002</v>
+      </c>
+      <c r="AQ126" t="s">
+        <v>169</v>
+      </c>
+      <c r="AR126">
+        <v>1.594991</v>
+      </c>
     </row>
-    <row r="127" spans="1:40" hidden="1" x14ac:dyDescent="0.25">
+    <row r="127" spans="1:44" x14ac:dyDescent="0.25">
       <c r="A127" t="s">
         <v>126</v>
       </c>
@@ -16501,8 +18013,20 @@
       <c r="AN127">
         <v>500.08</v>
       </c>
+      <c r="AO127" t="s">
+        <v>213</v>
+      </c>
+      <c r="AP127">
+        <v>500.09719200000001</v>
+      </c>
+      <c r="AQ127" t="s">
+        <v>213</v>
+      </c>
+      <c r="AR127">
+        <v>500.000112</v>
+      </c>
     </row>
-    <row r="128" spans="1:40" hidden="1" x14ac:dyDescent="0.25">
+    <row r="128" spans="1:44" x14ac:dyDescent="0.25">
       <c r="A128" t="s">
         <v>127</v>
       </c>
@@ -16623,8 +18147,20 @@
       <c r="AN128">
         <v>500.154</v>
       </c>
+      <c r="AO128" t="s">
+        <v>213</v>
+      </c>
+      <c r="AP128">
+        <v>500.21040399999998</v>
+      </c>
+      <c r="AQ128" t="s">
+        <v>213</v>
+      </c>
+      <c r="AR128">
+        <v>500.00014900000002</v>
+      </c>
     </row>
-    <row r="129" spans="1:40" hidden="1" x14ac:dyDescent="0.25">
+    <row r="129" spans="1:44" x14ac:dyDescent="0.25">
       <c r="A129" t="s">
         <v>128</v>
       </c>
@@ -16745,8 +18281,20 @@
       <c r="AN129">
         <v>611.35</v>
       </c>
+      <c r="AO129" t="s">
+        <v>213</v>
+      </c>
+      <c r="AP129">
+        <v>500.16203100000001</v>
+      </c>
+      <c r="AQ129" t="s">
+        <v>213</v>
+      </c>
+      <c r="AR129">
+        <v>500.00013300000001</v>
+      </c>
     </row>
-    <row r="130" spans="1:40" hidden="1" x14ac:dyDescent="0.25">
+    <row r="130" spans="1:44" x14ac:dyDescent="0.25">
       <c r="A130" t="s">
         <v>129</v>
       </c>
@@ -16867,8 +18415,20 @@
       <c r="AN130">
         <v>500.435</v>
       </c>
+      <c r="AO130" t="s">
+        <v>213</v>
+      </c>
+      <c r="AP130">
+        <v>500.04641900000001</v>
+      </c>
+      <c r="AQ130" t="s">
+        <v>213</v>
+      </c>
+      <c r="AR130">
+        <v>500.000114</v>
+      </c>
     </row>
-    <row r="131" spans="1:40" hidden="1" x14ac:dyDescent="0.25">
+    <row r="131" spans="1:44" x14ac:dyDescent="0.25">
       <c r="A131" t="s">
         <v>130</v>
       </c>
@@ -16989,8 +18549,20 @@
       <c r="AN131">
         <v>500.01299999999998</v>
       </c>
+      <c r="AO131" t="s">
+        <v>213</v>
+      </c>
+      <c r="AP131">
+        <v>499.97525899999999</v>
+      </c>
+      <c r="AQ131" t="s">
+        <v>213</v>
+      </c>
+      <c r="AR131">
+        <v>500.00011899999998</v>
+      </c>
     </row>
-    <row r="132" spans="1:40" hidden="1" x14ac:dyDescent="0.25">
+    <row r="132" spans="1:44" x14ac:dyDescent="0.25">
       <c r="A132" t="s">
         <v>131</v>
       </c>
@@ -17111,8 +18683,20 @@
       <c r="AN132">
         <v>500.02800000000002</v>
       </c>
+      <c r="AO132" t="s">
+        <v>213</v>
+      </c>
+      <c r="AP132">
+        <v>499.93582700000002</v>
+      </c>
+      <c r="AQ132" t="s">
+        <v>213</v>
+      </c>
+      <c r="AR132">
+        <v>500.000111</v>
+      </c>
     </row>
-    <row r="133" spans="1:40" hidden="1" x14ac:dyDescent="0.25">
+    <row r="133" spans="1:44" x14ac:dyDescent="0.25">
       <c r="A133" t="s">
         <v>132</v>
       </c>
@@ -17233,8 +18817,17 @@
       <c r="AN133">
         <v>500.572</v>
       </c>
+      <c r="AO133" t="s">
+        <v>213</v>
+      </c>
+      <c r="AP133">
+        <v>500.00224700000001</v>
+      </c>
+      <c r="AR133">
+        <v>48.563617999999998</v>
+      </c>
     </row>
-    <row r="134" spans="1:40" x14ac:dyDescent="0.25">
+    <row r="134" spans="1:44" x14ac:dyDescent="0.25">
       <c r="A134" t="s">
         <v>133</v>
       </c>
@@ -17355,8 +18948,20 @@
       <c r="AN134">
         <v>2.9995999999999998E-2</v>
       </c>
+      <c r="AO134" t="s">
+        <v>169</v>
+      </c>
+      <c r="AP134">
+        <v>1.4515E-2</v>
+      </c>
+      <c r="AQ134" t="s">
+        <v>169</v>
+      </c>
+      <c r="AR134">
+        <v>2.9332E-2</v>
+      </c>
     </row>
-    <row r="135" spans="1:40" x14ac:dyDescent="0.25">
+    <row r="135" spans="1:44" x14ac:dyDescent="0.25">
       <c r="A135" t="s">
         <v>134</v>
       </c>
@@ -17477,8 +19082,20 @@
       <c r="AN135">
         <v>500.06700000000001</v>
       </c>
+      <c r="AO135" t="s">
+        <v>213</v>
+      </c>
+      <c r="AP135">
+        <v>499.91256299999998</v>
+      </c>
+      <c r="AQ135" t="s">
+        <v>213</v>
+      </c>
+      <c r="AR135">
+        <v>500.00014399999998</v>
+      </c>
     </row>
-    <row r="136" spans="1:40" hidden="1" x14ac:dyDescent="0.25">
+    <row r="136" spans="1:44" x14ac:dyDescent="0.25">
       <c r="A136" t="s">
         <v>135</v>
       </c>
@@ -17599,8 +19216,20 @@
       <c r="AN136">
         <v>500.00299999999999</v>
       </c>
+      <c r="AO136" t="s">
+        <v>169</v>
+      </c>
+      <c r="AP136">
+        <v>1.8221000000000001E-2</v>
+      </c>
+      <c r="AQ136" t="s">
+        <v>213</v>
+      </c>
+      <c r="AR136">
+        <v>500.000135</v>
+      </c>
     </row>
-    <row r="137" spans="1:40" x14ac:dyDescent="0.25">
+    <row r="137" spans="1:44" x14ac:dyDescent="0.25">
       <c r="A137" t="s">
         <v>136</v>
       </c>
@@ -17721,8 +19350,20 @@
       <c r="AN137">
         <v>4.6994000000000001E-2</v>
       </c>
+      <c r="AO137" t="s">
+        <v>213</v>
+      </c>
+      <c r="AP137">
+        <v>500.10259600000001</v>
+      </c>
+      <c r="AQ137" t="s">
+        <v>169</v>
+      </c>
+      <c r="AR137">
+        <v>5.0795E-2</v>
+      </c>
     </row>
-    <row r="138" spans="1:40" hidden="1" x14ac:dyDescent="0.25">
+    <row r="138" spans="1:44" x14ac:dyDescent="0.25">
       <c r="A138" t="s">
         <v>137</v>
       </c>
@@ -17843,8 +19484,17 @@
       <c r="AN138">
         <v>500.53199999999998</v>
       </c>
+      <c r="AO138" t="s">
+        <v>213</v>
+      </c>
+      <c r="AP138">
+        <v>500.00263699999999</v>
+      </c>
+      <c r="AR138">
+        <v>365.51174800000001</v>
+      </c>
     </row>
-    <row r="139" spans="1:40" hidden="1" x14ac:dyDescent="0.25">
+    <row r="139" spans="1:44" x14ac:dyDescent="0.25">
       <c r="A139" t="s">
         <v>138</v>
       </c>
@@ -17965,8 +19615,20 @@
       <c r="AN139">
         <v>500.01299999999998</v>
       </c>
+      <c r="AO139" t="s">
+        <v>213</v>
+      </c>
+      <c r="AP139">
+        <v>500.08448900000002</v>
+      </c>
+      <c r="AQ139" t="s">
+        <v>213</v>
+      </c>
+      <c r="AR139">
+        <v>500.00011499999999</v>
+      </c>
     </row>
-    <row r="140" spans="1:40" hidden="1" x14ac:dyDescent="0.25">
+    <row r="140" spans="1:44" x14ac:dyDescent="0.25">
       <c r="A140" t="s">
         <v>139</v>
       </c>
@@ -18087,8 +19749,20 @@
       <c r="AN140">
         <v>500.14699999999999</v>
       </c>
+      <c r="AO140" t="s">
+        <v>213</v>
+      </c>
+      <c r="AP140">
+        <v>499.97240199999999</v>
+      </c>
+      <c r="AQ140" t="s">
+        <v>213</v>
+      </c>
+      <c r="AR140">
+        <v>500.00015500000001</v>
+      </c>
     </row>
-    <row r="141" spans="1:40" hidden="1" x14ac:dyDescent="0.25">
+    <row r="141" spans="1:44" x14ac:dyDescent="0.25">
       <c r="A141" t="s">
         <v>140</v>
       </c>
@@ -18209,8 +19883,20 @@
       <c r="AN141">
         <v>501.661</v>
       </c>
+      <c r="AO141" t="s">
+        <v>213</v>
+      </c>
+      <c r="AP141">
+        <v>499.90578699999998</v>
+      </c>
+      <c r="AQ141" t="s">
+        <v>213</v>
+      </c>
+      <c r="AR141">
+        <v>500.000406</v>
+      </c>
     </row>
-    <row r="142" spans="1:40" hidden="1" x14ac:dyDescent="0.25">
+    <row r="142" spans="1:44" x14ac:dyDescent="0.25">
       <c r="A142" t="s">
         <v>141</v>
       </c>
@@ -18331,8 +20017,20 @@
       <c r="AN142">
         <v>500.017</v>
       </c>
+      <c r="AO142" t="s">
+        <v>213</v>
+      </c>
+      <c r="AP142">
+        <v>499.92773099999999</v>
+      </c>
+      <c r="AQ142" t="s">
+        <v>213</v>
+      </c>
+      <c r="AR142">
+        <v>500.00011899999998</v>
+      </c>
     </row>
-    <row r="143" spans="1:40" hidden="1" x14ac:dyDescent="0.25">
+    <row r="143" spans="1:44" x14ac:dyDescent="0.25">
       <c r="A143" t="s">
         <v>142</v>
       </c>
@@ -18453,8 +20151,20 @@
       <c r="AN143">
         <v>500.07900000000001</v>
       </c>
+      <c r="AO143" t="s">
+        <v>213</v>
+      </c>
+      <c r="AP143">
+        <v>499.94054299999999</v>
+      </c>
+      <c r="AQ143" t="s">
+        <v>213</v>
+      </c>
+      <c r="AR143">
+        <v>500.000159</v>
+      </c>
     </row>
-    <row r="144" spans="1:40" x14ac:dyDescent="0.25">
+    <row r="144" spans="1:44" x14ac:dyDescent="0.25">
       <c r="A144" t="s">
         <v>143</v>
       </c>
@@ -18575,8 +20285,17 @@
       <c r="AN144">
         <v>500.09100000000001</v>
       </c>
+      <c r="AO144" t="s">
+        <v>213</v>
+      </c>
+      <c r="AP144">
+        <v>500.03454799999997</v>
+      </c>
+      <c r="AR144">
+        <v>314.08952900000003</v>
+      </c>
     </row>
-    <row r="145" spans="1:40" hidden="1" x14ac:dyDescent="0.25">
+    <row r="145" spans="1:44" x14ac:dyDescent="0.25">
       <c r="A145" t="s">
         <v>144</v>
       </c>
@@ -18697,8 +20416,20 @@
       <c r="AN145">
         <v>500.13</v>
       </c>
+      <c r="AO145" t="s">
+        <v>213</v>
+      </c>
+      <c r="AP145">
+        <v>499.97556700000001</v>
+      </c>
+      <c r="AQ145" t="s">
+        <v>213</v>
+      </c>
+      <c r="AR145">
+        <v>500.00012700000002</v>
+      </c>
     </row>
-    <row r="146" spans="1:40" hidden="1" x14ac:dyDescent="0.25">
+    <row r="146" spans="1:44" x14ac:dyDescent="0.25">
       <c r="A146" t="s">
         <v>145</v>
       </c>
@@ -18819,8 +20550,20 @@
       <c r="AN146">
         <v>500.25700000000001</v>
       </c>
+      <c r="AO146" t="s">
+        <v>213</v>
+      </c>
+      <c r="AP146">
+        <v>499.98774600000002</v>
+      </c>
+      <c r="AQ146" t="s">
+        <v>213</v>
+      </c>
+      <c r="AR146">
+        <v>500.00015300000001</v>
+      </c>
     </row>
-    <row r="147" spans="1:40" hidden="1" x14ac:dyDescent="0.25">
+    <row r="147" spans="1:44" x14ac:dyDescent="0.25">
       <c r="A147" t="s">
         <v>146</v>
       </c>
@@ -18941,8 +20684,20 @@
       <c r="AN147">
         <v>500.08300000000003</v>
       </c>
+      <c r="AO147" t="s">
+        <v>213</v>
+      </c>
+      <c r="AP147">
+        <v>499.97981600000003</v>
+      </c>
+      <c r="AQ147" t="s">
+        <v>213</v>
+      </c>
+      <c r="AR147">
+        <v>500.00017000000003</v>
+      </c>
     </row>
-    <row r="148" spans="1:40" hidden="1" x14ac:dyDescent="0.25">
+    <row r="148" spans="1:44" x14ac:dyDescent="0.25">
       <c r="A148" t="s">
         <v>147</v>
       </c>
@@ -19063,8 +20818,14 @@
       <c r="AN148">
         <v>514.54200000000003</v>
       </c>
+      <c r="AP148">
+        <v>41.750425</v>
+      </c>
+      <c r="AR148">
+        <v>49.410167000000001</v>
+      </c>
     </row>
-    <row r="149" spans="1:40" hidden="1" x14ac:dyDescent="0.25">
+    <row r="149" spans="1:44" x14ac:dyDescent="0.25">
       <c r="A149" t="s">
         <v>148</v>
       </c>
@@ -19185,8 +20946,20 @@
       <c r="AN149">
         <v>500.00099999999998</v>
       </c>
+      <c r="AO149" t="s">
+        <v>213</v>
+      </c>
+      <c r="AP149">
+        <v>499.95486399999999</v>
+      </c>
+      <c r="AQ149" t="s">
+        <v>169</v>
+      </c>
+      <c r="AR149">
+        <v>4.4507560000000002</v>
+      </c>
     </row>
-    <row r="150" spans="1:40" hidden="1" x14ac:dyDescent="0.25">
+    <row r="150" spans="1:44" x14ac:dyDescent="0.25">
       <c r="A150" t="s">
         <v>149</v>
       </c>
@@ -19307,8 +21080,20 @@
       <c r="AN150">
         <v>500.46300000000002</v>
       </c>
+      <c r="AO150" t="s">
+        <v>213</v>
+      </c>
+      <c r="AP150">
+        <v>500.02747099999999</v>
+      </c>
+      <c r="AQ150" t="s">
+        <v>213</v>
+      </c>
+      <c r="AR150">
+        <v>500.00028099999997</v>
+      </c>
     </row>
-    <row r="151" spans="1:40" hidden="1" x14ac:dyDescent="0.25">
+    <row r="151" spans="1:44" x14ac:dyDescent="0.25">
       <c r="A151" t="s">
         <v>150</v>
       </c>
@@ -19429,10 +21214,22 @@
       <c r="AN151">
         <v>500.80500000000001</v>
       </c>
+      <c r="AO151" t="s">
+        <v>213</v>
+      </c>
+      <c r="AP151">
+        <v>500.11254200000002</v>
+      </c>
+      <c r="AQ151" t="s">
+        <v>213</v>
+      </c>
+      <c r="AR151">
+        <v>500.00011699999999</v>
+      </c>
     </row>
-    <row r="152" spans="1:40" x14ac:dyDescent="0.25">
+    <row r="152" spans="1:44" x14ac:dyDescent="0.25">
       <c r="A152" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="B152" t="s">
         <v>170</v>
@@ -19441,120 +21238,129 @@
         <v>171</v>
       </c>
       <c r="D152">
-        <v>500.00599999999997</v>
+        <v>3546.7</v>
       </c>
       <c r="E152" t="s">
         <v>171</v>
       </c>
       <c r="F152">
-        <v>500.16300000000001</v>
+        <v>3541.2</v>
       </c>
       <c r="G152" t="s">
-        <v>168</v>
+        <v>171</v>
       </c>
       <c r="H152">
-        <v>103.29300000000001</v>
+        <v>1743.56</v>
       </c>
       <c r="I152" t="s">
         <v>171</v>
       </c>
       <c r="J152">
-        <v>500.13900000000001</v>
+        <v>1415.94</v>
       </c>
       <c r="K152" t="s">
         <v>171</v>
       </c>
       <c r="L152">
-        <v>500.125</v>
+        <v>1757.74</v>
       </c>
       <c r="M152" t="s">
         <v>171</v>
       </c>
       <c r="N152">
-        <v>500.07100000000003</v>
+        <v>1424.73</v>
       </c>
       <c r="O152" t="s">
         <v>171</v>
       </c>
       <c r="P152">
-        <v>500.15499999999997</v>
+        <v>1432.46</v>
       </c>
       <c r="Q152" t="s">
         <v>171</v>
       </c>
       <c r="R152">
-        <v>500.32900000000001</v>
+        <v>3541.14</v>
       </c>
       <c r="S152" t="s">
         <v>171</v>
       </c>
       <c r="T152">
-        <v>500.26900000000001</v>
+        <v>3565.03</v>
       </c>
       <c r="U152" t="s">
         <v>171</v>
       </c>
       <c r="V152">
-        <v>500.16699999999997</v>
+        <v>1425.96</v>
       </c>
       <c r="W152" t="s">
         <v>171</v>
       </c>
       <c r="X152">
-        <v>500.20299999999997</v>
+        <v>1423.6</v>
       </c>
       <c r="Y152" t="s">
         <v>171</v>
       </c>
       <c r="Z152">
-        <v>500.149</v>
+        <v>1419.68</v>
       </c>
       <c r="AA152" t="s">
         <v>171</v>
       </c>
       <c r="AB152">
-        <v>500.20499999999998</v>
+        <v>1432.68</v>
       </c>
       <c r="AC152" t="s">
         <v>171</v>
       </c>
       <c r="AD152">
-        <v>500.07499999999999</v>
+        <v>1425.88</v>
       </c>
       <c r="AE152" t="s">
         <v>171</v>
       </c>
       <c r="AF152">
-        <v>500.03699999999998</v>
+        <v>3523.04</v>
       </c>
       <c r="AG152" t="s">
         <v>171</v>
       </c>
       <c r="AH152">
-        <v>500.07799999999997</v>
+        <v>3532.73</v>
       </c>
       <c r="AI152" t="s">
-        <v>168</v>
+        <v>171</v>
       </c>
       <c r="AJ152">
-        <v>126.235</v>
+        <v>1439.88</v>
       </c>
       <c r="AK152" t="s">
         <v>171</v>
       </c>
       <c r="AL152">
-        <v>500.08800000000002</v>
+        <v>1417.06</v>
       </c>
       <c r="AM152" t="s">
         <v>171</v>
       </c>
       <c r="AN152">
-        <v>500.005</v>
+        <v>1406.12</v>
+      </c>
+      <c r="AP152">
+        <v>41.401845999999999</v>
+      </c>
+      <c r="AQ152" t="s">
+        <v>213</v>
+      </c>
+      <c r="AR152">
+        <v>500.00012400000003</v>
       </c>
     </row>
-    <row r="153" spans="1:40" hidden="1" x14ac:dyDescent="0.25">
+    <row r="153" spans="1:44" x14ac:dyDescent="0.25">
       <c r="A153" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="B153" t="s">
         <v>170</v>
@@ -19563,120 +21369,132 @@
         <v>171</v>
       </c>
       <c r="D153">
-        <v>3546.7</v>
+        <v>514.27700000000004</v>
       </c>
       <c r="E153" t="s">
         <v>171</v>
       </c>
       <c r="F153">
-        <v>3541.2</v>
+        <v>510.41199999999998</v>
       </c>
       <c r="G153" t="s">
         <v>171</v>
       </c>
       <c r="H153">
-        <v>1743.56</v>
+        <v>503.34899999999999</v>
       </c>
       <c r="I153" t="s">
         <v>171</v>
       </c>
       <c r="J153">
-        <v>1415.94</v>
+        <v>506.17399999999998</v>
       </c>
       <c r="K153" t="s">
         <v>171</v>
       </c>
       <c r="L153">
-        <v>1757.74</v>
+        <v>503.55</v>
       </c>
       <c r="M153" t="s">
         <v>171</v>
       </c>
       <c r="N153">
-        <v>1424.73</v>
+        <v>502.88299999999998</v>
       </c>
       <c r="O153" t="s">
         <v>171</v>
       </c>
       <c r="P153">
-        <v>1432.46</v>
+        <v>501.53800000000001</v>
       </c>
       <c r="Q153" t="s">
         <v>171</v>
       </c>
       <c r="R153">
-        <v>3541.14</v>
+        <v>512.20399999999995</v>
       </c>
       <c r="S153" t="s">
         <v>171</v>
       </c>
       <c r="T153">
-        <v>3565.03</v>
+        <v>512.41399999999999</v>
       </c>
       <c r="U153" t="s">
         <v>171</v>
       </c>
       <c r="V153">
-        <v>1425.96</v>
+        <v>500.91199999999998</v>
       </c>
       <c r="W153" t="s">
         <v>171</v>
       </c>
       <c r="X153">
-        <v>1423.6</v>
+        <v>504.38600000000002</v>
       </c>
       <c r="Y153" t="s">
         <v>171</v>
       </c>
       <c r="Z153">
-        <v>1419.68</v>
+        <v>501.2</v>
       </c>
       <c r="AA153" t="s">
         <v>171</v>
       </c>
       <c r="AB153">
-        <v>1432.68</v>
+        <v>503.62599999999998</v>
       </c>
       <c r="AC153" t="s">
         <v>171</v>
       </c>
       <c r="AD153">
-        <v>1425.88</v>
+        <v>504.21300000000002</v>
       </c>
       <c r="AE153" t="s">
         <v>171</v>
       </c>
       <c r="AF153">
-        <v>3523.04</v>
+        <v>505.101</v>
       </c>
       <c r="AG153" t="s">
         <v>171</v>
       </c>
       <c r="AH153">
-        <v>3532.73</v>
+        <v>503.88799999999998</v>
       </c>
       <c r="AI153" t="s">
         <v>171</v>
       </c>
       <c r="AJ153">
-        <v>1439.88</v>
+        <v>502.92899999999997</v>
       </c>
       <c r="AK153" t="s">
         <v>171</v>
       </c>
       <c r="AL153">
-        <v>1417.06</v>
+        <v>505.49599999999998</v>
       </c>
       <c r="AM153" t="s">
         <v>171</v>
       </c>
       <c r="AN153">
-        <v>1406.12</v>
+        <v>502.803</v>
+      </c>
+      <c r="AO153" t="s">
+        <v>213</v>
+      </c>
+      <c r="AP153">
+        <v>500.126214</v>
+      </c>
+      <c r="AQ153" t="s">
+        <v>213</v>
+      </c>
+      <c r="AR153">
+        <v>500.00014099999999</v>
       </c>
     </row>
-    <row r="154" spans="1:40" hidden="1" x14ac:dyDescent="0.25">
+    <row r="154" spans="1:44" x14ac:dyDescent="0.25">
       <c r="A154" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="B154" t="s">
         <v>170</v>
@@ -19685,120 +21503,132 @@
         <v>171</v>
       </c>
       <c r="D154">
-        <v>514.27700000000004</v>
+        <v>500.12400000000002</v>
       </c>
       <c r="E154" t="s">
         <v>171</v>
       </c>
       <c r="F154">
-        <v>510.41199999999998</v>
+        <v>500.01499999999999</v>
       </c>
       <c r="G154" t="s">
         <v>171</v>
       </c>
       <c r="H154">
-        <v>503.34899999999999</v>
+        <v>500.32100000000003</v>
       </c>
       <c r="I154" t="s">
         <v>171</v>
       </c>
       <c r="J154">
-        <v>506.17399999999998</v>
+        <v>500.04700000000003</v>
       </c>
       <c r="K154" t="s">
         <v>171</v>
       </c>
       <c r="L154">
-        <v>503.55</v>
+        <v>500.38400000000001</v>
       </c>
       <c r="M154" t="s">
         <v>171</v>
       </c>
       <c r="N154">
-        <v>502.88299999999998</v>
+        <v>500.03500000000003</v>
       </c>
       <c r="O154" t="s">
         <v>171</v>
       </c>
       <c r="P154">
-        <v>501.53800000000001</v>
+        <v>500.30700000000002</v>
       </c>
       <c r="Q154" t="s">
         <v>171</v>
       </c>
       <c r="R154">
-        <v>512.20399999999995</v>
+        <v>500.65</v>
       </c>
       <c r="S154" t="s">
         <v>171</v>
       </c>
       <c r="T154">
-        <v>512.41399999999999</v>
+        <v>500.36399999999998</v>
       </c>
       <c r="U154" t="s">
         <v>171</v>
       </c>
       <c r="V154">
-        <v>500.91199999999998</v>
+        <v>500.286</v>
       </c>
       <c r="W154" t="s">
         <v>171</v>
       </c>
       <c r="X154">
-        <v>504.38600000000002</v>
+        <v>500.322</v>
       </c>
       <c r="Y154" t="s">
         <v>171</v>
       </c>
       <c r="Z154">
-        <v>501.2</v>
+        <v>500.19</v>
       </c>
       <c r="AA154" t="s">
         <v>171</v>
       </c>
       <c r="AB154">
-        <v>503.62599999999998</v>
+        <v>500.35700000000003</v>
       </c>
       <c r="AC154" t="s">
         <v>171</v>
       </c>
       <c r="AD154">
-        <v>504.21300000000002</v>
+        <v>500.22500000000002</v>
       </c>
       <c r="AE154" t="s">
         <v>171</v>
       </c>
       <c r="AF154">
-        <v>505.101</v>
+        <v>500.06400000000002</v>
       </c>
       <c r="AG154" t="s">
         <v>171</v>
       </c>
       <c r="AH154">
-        <v>503.88799999999998</v>
+        <v>500.375</v>
       </c>
       <c r="AI154" t="s">
         <v>171</v>
       </c>
       <c r="AJ154">
-        <v>502.92899999999997</v>
+        <v>500.21</v>
       </c>
       <c r="AK154" t="s">
         <v>171</v>
       </c>
       <c r="AL154">
-        <v>505.49599999999998</v>
+        <v>500.04</v>
       </c>
       <c r="AM154" t="s">
         <v>171</v>
       </c>
       <c r="AN154">
-        <v>502.803</v>
+        <v>500.27</v>
+      </c>
+      <c r="AO154" t="s">
+        <v>213</v>
+      </c>
+      <c r="AP154">
+        <v>500.15954900000003</v>
+      </c>
+      <c r="AQ154" t="s">
+        <v>213</v>
+      </c>
+      <c r="AR154">
+        <v>500.00014399999998</v>
       </c>
     </row>
-    <row r="155" spans="1:40" hidden="1" x14ac:dyDescent="0.25">
+    <row r="155" spans="1:44" x14ac:dyDescent="0.25">
       <c r="A155" t="s">
-        <v>154</v>
+        <v>151</v>
       </c>
       <c r="B155" t="s">
         <v>170</v>
@@ -19807,118 +21637,130 @@
         <v>171</v>
       </c>
       <c r="D155">
-        <v>500.12400000000002</v>
+        <v>500.00599999999997</v>
       </c>
       <c r="E155" t="s">
         <v>171</v>
       </c>
       <c r="F155">
-        <v>500.01499999999999</v>
+        <v>500.16300000000001</v>
       </c>
       <c r="G155" t="s">
-        <v>171</v>
+        <v>168</v>
       </c>
       <c r="H155">
-        <v>500.32100000000003</v>
+        <v>103.29300000000001</v>
       </c>
       <c r="I155" t="s">
         <v>171</v>
       </c>
       <c r="J155">
-        <v>500.04700000000003</v>
+        <v>500.13900000000001</v>
       </c>
       <c r="K155" t="s">
         <v>171</v>
       </c>
       <c r="L155">
-        <v>500.38400000000001</v>
+        <v>500.125</v>
       </c>
       <c r="M155" t="s">
         <v>171</v>
       </c>
       <c r="N155">
-        <v>500.03500000000003</v>
+        <v>500.07100000000003</v>
       </c>
       <c r="O155" t="s">
         <v>171</v>
       </c>
       <c r="P155">
-        <v>500.30700000000002</v>
+        <v>500.15499999999997</v>
       </c>
       <c r="Q155" t="s">
         <v>171</v>
       </c>
       <c r="R155">
-        <v>500.65</v>
+        <v>500.32900000000001</v>
       </c>
       <c r="S155" t="s">
         <v>171</v>
       </c>
       <c r="T155">
-        <v>500.36399999999998</v>
+        <v>500.26900000000001</v>
       </c>
       <c r="U155" t="s">
         <v>171</v>
       </c>
       <c r="V155">
-        <v>500.286</v>
+        <v>500.16699999999997</v>
       </c>
       <c r="W155" t="s">
         <v>171</v>
       </c>
       <c r="X155">
-        <v>500.322</v>
+        <v>500.20299999999997</v>
       </c>
       <c r="Y155" t="s">
         <v>171</v>
       </c>
       <c r="Z155">
-        <v>500.19</v>
+        <v>500.149</v>
       </c>
       <c r="AA155" t="s">
         <v>171</v>
       </c>
       <c r="AB155">
-        <v>500.35700000000003</v>
+        <v>500.20499999999998</v>
       </c>
       <c r="AC155" t="s">
         <v>171</v>
       </c>
       <c r="AD155">
-        <v>500.22500000000002</v>
+        <v>500.07499999999999</v>
       </c>
       <c r="AE155" t="s">
         <v>171</v>
       </c>
       <c r="AF155">
-        <v>500.06400000000002</v>
+        <v>500.03699999999998</v>
       </c>
       <c r="AG155" t="s">
         <v>171</v>
       </c>
       <c r="AH155">
-        <v>500.375</v>
+        <v>500.07799999999997</v>
       </c>
       <c r="AI155" t="s">
-        <v>171</v>
+        <v>168</v>
       </c>
       <c r="AJ155">
-        <v>500.21</v>
+        <v>126.235</v>
       </c>
       <c r="AK155" t="s">
         <v>171</v>
       </c>
       <c r="AL155">
-        <v>500.04</v>
+        <v>500.08800000000002</v>
       </c>
       <c r="AM155" t="s">
         <v>171</v>
       </c>
       <c r="AN155">
-        <v>500.27</v>
+        <v>500.005</v>
+      </c>
+      <c r="AO155" t="s">
+        <v>168</v>
+      </c>
+      <c r="AP155">
+        <v>0.24180299999999999</v>
+      </c>
+      <c r="AQ155" t="s">
+        <v>213</v>
+      </c>
+      <c r="AR155">
+        <v>500.000182</v>
       </c>
     </row>
-    <row r="156" spans="1:40" hidden="1" x14ac:dyDescent="0.25">
+    <row r="156" spans="1:44" x14ac:dyDescent="0.25">
       <c r="A156" t="s">
         <v>155</v>
       </c>
@@ -20039,8 +21881,20 @@
       <c r="AN156">
         <v>500.28</v>
       </c>
+      <c r="AO156" t="s">
+        <v>213</v>
+      </c>
+      <c r="AP156">
+        <v>499.95964600000002</v>
+      </c>
+      <c r="AQ156" t="s">
+        <v>213</v>
+      </c>
+      <c r="AR156">
+        <v>500.00012299999997</v>
+      </c>
     </row>
-    <row r="157" spans="1:40" hidden="1" x14ac:dyDescent="0.25">
+    <row r="157" spans="1:44" x14ac:dyDescent="0.25">
       <c r="A157" t="s">
         <v>156</v>
       </c>
@@ -20161,8 +22015,17 @@
       <c r="AN157">
         <v>514.20699999999999</v>
       </c>
+      <c r="AO157" t="s">
+        <v>213</v>
+      </c>
+      <c r="AP157">
+        <v>499.98461500000002</v>
+      </c>
+      <c r="AR157">
+        <v>36.469881000000001</v>
+      </c>
     </row>
-    <row r="158" spans="1:40" x14ac:dyDescent="0.25">
+    <row r="158" spans="1:44" x14ac:dyDescent="0.25">
       <c r="A158" t="s">
         <v>157</v>
       </c>
@@ -20283,8 +22146,20 @@
       <c r="AN158">
         <v>9.6986000000000003E-2</v>
       </c>
+      <c r="AO158" t="s">
+        <v>169</v>
+      </c>
+      <c r="AP158">
+        <v>2.0482E-2</v>
+      </c>
+      <c r="AQ158" t="s">
+        <v>169</v>
+      </c>
+      <c r="AR158">
+        <v>6.2813999999999995E-2</v>
+      </c>
     </row>
-    <row r="159" spans="1:40" hidden="1" x14ac:dyDescent="0.25">
+    <row r="159" spans="1:44" x14ac:dyDescent="0.25">
       <c r="A159" t="s">
         <v>158</v>
       </c>
@@ -20405,8 +22280,20 @@
       <c r="AN159">
         <v>500.00200000000001</v>
       </c>
+      <c r="AO159" t="s">
+        <v>169</v>
+      </c>
+      <c r="AP159">
+        <v>1.8763999999999999E-2</v>
+      </c>
+      <c r="AQ159" t="s">
+        <v>213</v>
+      </c>
+      <c r="AR159">
+        <v>500.00012199999998</v>
+      </c>
     </row>
-    <row r="160" spans="1:40" x14ac:dyDescent="0.25">
+    <row r="160" spans="1:44" x14ac:dyDescent="0.25">
       <c r="A160" t="s">
         <v>159</v>
       </c>
@@ -20527,8 +22414,20 @@
       <c r="AN160">
         <v>0.14197899999999999</v>
       </c>
+      <c r="AO160" t="s">
+        <v>213</v>
+      </c>
+      <c r="AP160">
+        <v>499.905349</v>
+      </c>
+      <c r="AQ160" t="s">
+        <v>169</v>
+      </c>
+      <c r="AR160">
+        <v>4.8078000000000003E-2</v>
+      </c>
     </row>
-    <row r="161" spans="1:40" hidden="1" x14ac:dyDescent="0.25">
+    <row r="161" spans="1:44" x14ac:dyDescent="0.25">
       <c r="A161" t="s">
         <v>160</v>
       </c>
@@ -20649,8 +22548,17 @@
       <c r="AN161">
         <v>502.14499999999998</v>
       </c>
+      <c r="AO161" t="s">
+        <v>213</v>
+      </c>
+      <c r="AP161">
+        <v>499.94173899999998</v>
+      </c>
+      <c r="AR161">
+        <v>457.69335799999999</v>
+      </c>
     </row>
-    <row r="162" spans="1:40" hidden="1" x14ac:dyDescent="0.25">
+    <row r="162" spans="1:44" x14ac:dyDescent="0.25">
       <c r="A162" t="s">
         <v>161</v>
       </c>
@@ -20771,8 +22679,20 @@
       <c r="AN162">
         <v>500.23899999999998</v>
       </c>
+      <c r="AO162" t="s">
+        <v>213</v>
+      </c>
+      <c r="AP162">
+        <v>499.97315800000001</v>
+      </c>
+      <c r="AQ162" t="s">
+        <v>213</v>
+      </c>
+      <c r="AR162">
+        <v>500.00012900000002</v>
+      </c>
     </row>
-    <row r="163" spans="1:40" x14ac:dyDescent="0.25">
+    <row r="163" spans="1:44" x14ac:dyDescent="0.25">
       <c r="A163" t="s">
         <v>162</v>
       </c>
@@ -20893,8 +22813,17 @@
       <c r="AN163">
         <v>500.03300000000002</v>
       </c>
+      <c r="AO163" t="s">
+        <v>168</v>
+      </c>
+      <c r="AP163">
+        <v>14.150846</v>
+      </c>
+      <c r="AR163">
+        <v>344.19569200000001</v>
+      </c>
     </row>
-    <row r="164" spans="1:40" hidden="1" x14ac:dyDescent="0.25">
+    <row r="164" spans="1:44" x14ac:dyDescent="0.25">
       <c r="A164" t="s">
         <v>163</v>
       </c>
@@ -21015,8 +22944,20 @@
       <c r="AN164">
         <v>500.01499999999999</v>
       </c>
+      <c r="AO164" t="s">
+        <v>168</v>
+      </c>
+      <c r="AP164">
+        <v>0.64529400000000003</v>
+      </c>
+      <c r="AQ164" t="s">
+        <v>213</v>
+      </c>
+      <c r="AR164">
+        <v>500.00012299999997</v>
+      </c>
     </row>
-    <row r="165" spans="1:40" hidden="1" x14ac:dyDescent="0.25">
+    <row r="165" spans="1:44" x14ac:dyDescent="0.25">
       <c r="A165" t="s">
         <v>164</v>
       </c>
@@ -21137,8 +23078,17 @@
       <c r="AN165">
         <v>505.75</v>
       </c>
+      <c r="AO165" t="s">
+        <v>213</v>
+      </c>
+      <c r="AP165">
+        <v>499.93957499999999</v>
+      </c>
+      <c r="AR165">
+        <v>405.48831100000001</v>
+      </c>
     </row>
-    <row r="166" spans="1:40" hidden="1" x14ac:dyDescent="0.25">
+    <row r="166" spans="1:44" x14ac:dyDescent="0.25">
       <c r="A166" t="s">
         <v>165</v>
       </c>
@@ -21259,8 +23209,20 @@
       <c r="AN166">
         <v>500.488</v>
       </c>
+      <c r="AO166" t="s">
+        <v>213</v>
+      </c>
+      <c r="AP166">
+        <v>499.94659799999999</v>
+      </c>
+      <c r="AQ166" t="s">
+        <v>213</v>
+      </c>
+      <c r="AR166">
+        <v>500.000113</v>
+      </c>
     </row>
-    <row r="167" spans="1:40" hidden="1" x14ac:dyDescent="0.25">
+    <row r="167" spans="1:44" x14ac:dyDescent="0.25">
       <c r="A167" t="s">
         <v>166</v>
       </c>
@@ -21381,8 +23343,20 @@
       <c r="AN167">
         <v>500.05799999999999</v>
       </c>
+      <c r="AO167" t="s">
+        <v>213</v>
+      </c>
+      <c r="AP167">
+        <v>499.92553600000002</v>
+      </c>
+      <c r="AQ167" t="s">
+        <v>213</v>
+      </c>
+      <c r="AR167">
+        <v>500.000136</v>
+      </c>
     </row>
-    <row r="168" spans="1:40" hidden="1" x14ac:dyDescent="0.25">
+    <row r="168" spans="1:44" x14ac:dyDescent="0.25">
       <c r="A168" t="s">
         <v>0</v>
       </c>
@@ -21503,16 +23477,20 @@
       <c r="AN168" t="s">
         <v>172</v>
       </c>
+      <c r="AO168">
+        <v>92</v>
+      </c>
+      <c r="AP168" t="s">
+        <v>172</v>
+      </c>
+      <c r="AQ168">
+        <v>33</v>
+      </c>
+      <c r="AR168" t="s">
+        <v>172</v>
+      </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:AN168">
-    <filterColumn colId="6">
-      <filters>
-        <filter val="sat"/>
-        <filter val="unsat"/>
-      </filters>
-    </filterColumn>
-  </autoFilter>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
